--- a/AOS2 Programming/Code/Term 2/Weeks 1 and 2/quire-to-excel/gantt-template.xlsx
+++ b/AOS2 Programming/Code/Term 2/Weeks 1 and 2/quire-to-excel/gantt-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{21812616-D723-E14D-B011-2BE30B591C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F93BCC39-3DA7-714B-9B06-11C711DAA432}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{21812616-D723-E14D-B011-2BE30B591C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F24F52E-0E49-7E4B-8541-FDC338A807C7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1303,6 +1303,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="48" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="49" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="49" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1313,40 +1347,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="48" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="49" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="49" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,7 +1406,247 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1533,15 +1773,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2091,11 +2331,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL63"/>
+  <dimension ref="A1:DP63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="57" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomLeft" activeCell="DH14" sqref="DH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2108,11 +2348,10 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="9" max="120" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -2139,124 +2378,204 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96">
+      <c r="D3" s="103"/>
+      <c r="E3" s="108">
         <v>44655</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="108"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="105">
         <f>I5</f>
         <v>44655</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="105">
         <f>P5</f>
         <v>44662</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="105">
         <f>W5</f>
         <v>44669</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="105">
         <f>AD5</f>
         <v>44676</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="105">
         <f>AK5</f>
         <v>44683</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="105">
         <f>AR5</f>
         <v>44690</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="105">
         <f>AY5</f>
         <v>44697</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="105">
         <f>BF5</f>
         <v>44704</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="105">
+        <f>BM5</f>
+        <v>44711</v>
+      </c>
+      <c r="BN4" s="106"/>
+      <c r="BO4" s="106"/>
+      <c r="BP4" s="106"/>
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="107"/>
+      <c r="BT4" s="105">
+        <f>BT5</f>
+        <v>44718</v>
+      </c>
+      <c r="BU4" s="106"/>
+      <c r="BV4" s="106"/>
+      <c r="BW4" s="106"/>
+      <c r="BX4" s="106"/>
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="107"/>
+      <c r="CA4" s="105">
+        <f>CA5</f>
+        <v>44725</v>
+      </c>
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="106"/>
+      <c r="CD4" s="106"/>
+      <c r="CE4" s="106"/>
+      <c r="CF4" s="106"/>
+      <c r="CG4" s="107"/>
+      <c r="CH4" s="105">
+        <f>CH5</f>
+        <v>44732</v>
+      </c>
+      <c r="CI4" s="106"/>
+      <c r="CJ4" s="106"/>
+      <c r="CK4" s="106"/>
+      <c r="CL4" s="106"/>
+      <c r="CM4" s="106"/>
+      <c r="CN4" s="107"/>
+      <c r="CO4" s="105">
+        <f>CO5</f>
+        <v>44739</v>
+      </c>
+      <c r="CP4" s="106"/>
+      <c r="CQ4" s="106"/>
+      <c r="CR4" s="106"/>
+      <c r="CS4" s="106"/>
+      <c r="CT4" s="106"/>
+      <c r="CU4" s="107"/>
+      <c r="CV4" s="105">
+        <f>CV5</f>
+        <v>44746</v>
+      </c>
+      <c r="CW4" s="106"/>
+      <c r="CX4" s="106"/>
+      <c r="CY4" s="106"/>
+      <c r="CZ4" s="106"/>
+      <c r="DA4" s="106"/>
+      <c r="DB4" s="107"/>
+      <c r="DC4" s="105">
+        <f>DC5</f>
+        <v>44753</v>
+      </c>
+      <c r="DD4" s="106"/>
+      <c r="DE4" s="106"/>
+      <c r="DF4" s="106"/>
+      <c r="DG4" s="106"/>
+      <c r="DH4" s="106"/>
+      <c r="DI4" s="107"/>
+      <c r="DJ4" s="105">
+        <f>DJ5</f>
+        <v>44760</v>
+      </c>
+      <c r="DK4" s="106"/>
+      <c r="DL4" s="106"/>
+      <c r="DM4" s="106"/>
+      <c r="DN4" s="106"/>
+      <c r="DO4" s="106"/>
+      <c r="DP4" s="107"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="I5" s="62">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44655</v>
@@ -2481,8 +2800,232 @@
         <f t="shared" si="2"/>
         <v>44710</v>
       </c>
+      <c r="BM5" s="62">
+        <f>BL5+1</f>
+        <v>44711</v>
+      </c>
+      <c r="BN5" s="63">
+        <f>BM5+1</f>
+        <v>44712</v>
+      </c>
+      <c r="BO5" s="63">
+        <f t="shared" ref="BO5" si="3">BN5+1</f>
+        <v>44713</v>
+      </c>
+      <c r="BP5" s="63">
+        <f t="shared" ref="BP5" si="4">BO5+1</f>
+        <v>44714</v>
+      </c>
+      <c r="BQ5" s="63">
+        <f t="shared" ref="BQ5" si="5">BP5+1</f>
+        <v>44715</v>
+      </c>
+      <c r="BR5" s="63">
+        <f t="shared" ref="BR5" si="6">BQ5+1</f>
+        <v>44716</v>
+      </c>
+      <c r="BS5" s="64">
+        <f t="shared" ref="BS5" si="7">BR5+1</f>
+        <v>44717</v>
+      </c>
+      <c r="BT5" s="62">
+        <f>BS5+1</f>
+        <v>44718</v>
+      </c>
+      <c r="BU5" s="63">
+        <f>BT5+1</f>
+        <v>44719</v>
+      </c>
+      <c r="BV5" s="63">
+        <f t="shared" ref="BV5" si="8">BU5+1</f>
+        <v>44720</v>
+      </c>
+      <c r="BW5" s="63">
+        <f t="shared" ref="BW5" si="9">BV5+1</f>
+        <v>44721</v>
+      </c>
+      <c r="BX5" s="63">
+        <f t="shared" ref="BX5" si="10">BW5+1</f>
+        <v>44722</v>
+      </c>
+      <c r="BY5" s="63">
+        <f t="shared" ref="BY5" si="11">BX5+1</f>
+        <v>44723</v>
+      </c>
+      <c r="BZ5" s="64">
+        <f t="shared" ref="BZ5" si="12">BY5+1</f>
+        <v>44724</v>
+      </c>
+      <c r="CA5" s="62">
+        <f>BZ5+1</f>
+        <v>44725</v>
+      </c>
+      <c r="CB5" s="63">
+        <f>CA5+1</f>
+        <v>44726</v>
+      </c>
+      <c r="CC5" s="63">
+        <f t="shared" ref="CC5" si="13">CB5+1</f>
+        <v>44727</v>
+      </c>
+      <c r="CD5" s="63">
+        <f t="shared" ref="CD5" si="14">CC5+1</f>
+        <v>44728</v>
+      </c>
+      <c r="CE5" s="63">
+        <f t="shared" ref="CE5" si="15">CD5+1</f>
+        <v>44729</v>
+      </c>
+      <c r="CF5" s="63">
+        <f t="shared" ref="CF5" si="16">CE5+1</f>
+        <v>44730</v>
+      </c>
+      <c r="CG5" s="64">
+        <f t="shared" ref="CG5" si="17">CF5+1</f>
+        <v>44731</v>
+      </c>
+      <c r="CH5" s="62">
+        <f>CG5+1</f>
+        <v>44732</v>
+      </c>
+      <c r="CI5" s="63">
+        <f>CH5+1</f>
+        <v>44733</v>
+      </c>
+      <c r="CJ5" s="63">
+        <f t="shared" ref="CJ5" si="18">CI5+1</f>
+        <v>44734</v>
+      </c>
+      <c r="CK5" s="63">
+        <f t="shared" ref="CK5" si="19">CJ5+1</f>
+        <v>44735</v>
+      </c>
+      <c r="CL5" s="63">
+        <f t="shared" ref="CL5" si="20">CK5+1</f>
+        <v>44736</v>
+      </c>
+      <c r="CM5" s="63">
+        <f t="shared" ref="CM5" si="21">CL5+1</f>
+        <v>44737</v>
+      </c>
+      <c r="CN5" s="64">
+        <f t="shared" ref="CN5" si="22">CM5+1</f>
+        <v>44738</v>
+      </c>
+      <c r="CO5" s="62">
+        <f>CN5+1</f>
+        <v>44739</v>
+      </c>
+      <c r="CP5" s="63">
+        <f>CO5+1</f>
+        <v>44740</v>
+      </c>
+      <c r="CQ5" s="63">
+        <f t="shared" ref="CQ5" si="23">CP5+1</f>
+        <v>44741</v>
+      </c>
+      <c r="CR5" s="63">
+        <f t="shared" ref="CR5" si="24">CQ5+1</f>
+        <v>44742</v>
+      </c>
+      <c r="CS5" s="63">
+        <f t="shared" ref="CS5" si="25">CR5+1</f>
+        <v>44743</v>
+      </c>
+      <c r="CT5" s="63">
+        <f t="shared" ref="CT5" si="26">CS5+1</f>
+        <v>44744</v>
+      </c>
+      <c r="CU5" s="64">
+        <f t="shared" ref="CU5" si="27">CT5+1</f>
+        <v>44745</v>
+      </c>
+      <c r="CV5" s="62">
+        <f>CU5+1</f>
+        <v>44746</v>
+      </c>
+      <c r="CW5" s="63">
+        <f>CV5+1</f>
+        <v>44747</v>
+      </c>
+      <c r="CX5" s="63">
+        <f t="shared" ref="CX5" si="28">CW5+1</f>
+        <v>44748</v>
+      </c>
+      <c r="CY5" s="63">
+        <f t="shared" ref="CY5" si="29">CX5+1</f>
+        <v>44749</v>
+      </c>
+      <c r="CZ5" s="63">
+        <f t="shared" ref="CZ5" si="30">CY5+1</f>
+        <v>44750</v>
+      </c>
+      <c r="DA5" s="63">
+        <f t="shared" ref="DA5" si="31">CZ5+1</f>
+        <v>44751</v>
+      </c>
+      <c r="DB5" s="64">
+        <f t="shared" ref="DB5" si="32">DA5+1</f>
+        <v>44752</v>
+      </c>
+      <c r="DC5" s="62">
+        <f>DB5+1</f>
+        <v>44753</v>
+      </c>
+      <c r="DD5" s="63">
+        <f>DC5+1</f>
+        <v>44754</v>
+      </c>
+      <c r="DE5" s="63">
+        <f t="shared" ref="DE5" si="33">DD5+1</f>
+        <v>44755</v>
+      </c>
+      <c r="DF5" s="63">
+        <f t="shared" ref="DF5" si="34">DE5+1</f>
+        <v>44756</v>
+      </c>
+      <c r="DG5" s="63">
+        <f t="shared" ref="DG5" si="35">DF5+1</f>
+        <v>44757</v>
+      </c>
+      <c r="DH5" s="63">
+        <f t="shared" ref="DH5" si="36">DG5+1</f>
+        <v>44758</v>
+      </c>
+      <c r="DI5" s="64">
+        <f t="shared" ref="DI5" si="37">DH5+1</f>
+        <v>44759</v>
+      </c>
+      <c r="DJ5" s="62">
+        <f>DI5+1</f>
+        <v>44760</v>
+      </c>
+      <c r="DK5" s="63">
+        <f>DJ5+1</f>
+        <v>44761</v>
+      </c>
+      <c r="DL5" s="63">
+        <f t="shared" ref="DL5" si="38">DK5+1</f>
+        <v>44762</v>
+      </c>
+      <c r="DM5" s="63">
+        <f t="shared" ref="DM5" si="39">DL5+1</f>
+        <v>44763</v>
+      </c>
+      <c r="DN5" s="63">
+        <f t="shared" ref="DN5" si="40">DM5+1</f>
+        <v>44764</v>
+      </c>
+      <c r="DO5" s="63">
+        <f t="shared" ref="DO5" si="41">DN5+1</f>
+        <v>44765</v>
+      </c>
+      <c r="DP5" s="64">
+        <f t="shared" ref="DP5" si="42">DO5+1</f>
+        <v>44766</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:120" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
@@ -2506,231 +3049,455 @@
         <v>26</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="43">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="44">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>W</v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="M6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>F</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="O6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="P6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>M</v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="R6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>W</v>
       </c>
       <c r="S6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="T6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>F</v>
       </c>
       <c r="U6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="V6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="W6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>M</v>
       </c>
       <c r="X6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="Y6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>W</v>
       </c>
       <c r="Z6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="AA6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>F</v>
       </c>
       <c r="AB6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="AD6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>M</v>
       </c>
       <c r="AE6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="AF6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>W</v>
       </c>
       <c r="AG6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>F</v>
       </c>
       <c r="AI6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="AK6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>M</v>
       </c>
       <c r="AL6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="AM6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>W</v>
       </c>
       <c r="AN6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>T</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>F</v>
       </c>
       <c r="AP6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>S</v>
       </c>
       <c r="AR6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="44"/>
         <v>M</v>
       </c>
       <c r="AS6" s="10" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="45">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>W</v>
       </c>
       <c r="AU6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>T</v>
       </c>
       <c r="AV6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>F</v>
       </c>
       <c r="AW6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>S</v>
       </c>
       <c r="AX6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>S</v>
       </c>
       <c r="AY6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>T</v>
       </c>
       <c r="BA6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>W</v>
       </c>
       <c r="BB6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>T</v>
       </c>
       <c r="BC6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>F</v>
       </c>
       <c r="BD6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>S</v>
       </c>
       <c r="BE6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>S</v>
       </c>
       <c r="BF6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>M</v>
       </c>
       <c r="BG6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>T</v>
       </c>
       <c r="BH6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>W</v>
       </c>
       <c r="BI6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>F</v>
       </c>
       <c r="BK6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>S</v>
       </c>
       <c r="BL6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="45"/>
         <v>S</v>
       </c>
+      <c r="BM6" s="10" t="str">
+        <f t="shared" ref="BM6:DP6" si="46">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="BN6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="BO6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="BP6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="BQ6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="BR6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="BS6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="BT6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>M</v>
+      </c>
+      <c r="BU6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="BV6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="BW6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="BX6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="BY6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="BZ6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="CA6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>M</v>
+      </c>
+      <c r="CB6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CC6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="CD6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CE6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="CF6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="CH6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>M</v>
+      </c>
+      <c r="CI6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CJ6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="CK6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CL6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="CM6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="CN6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="CO6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>M</v>
+      </c>
+      <c r="CP6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CQ6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="CR6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CS6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="CT6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="CU6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="CV6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>M</v>
+      </c>
+      <c r="CW6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CX6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="CY6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="CZ6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="DA6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="DB6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="DC6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>M</v>
+      </c>
+      <c r="DD6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="DE6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="DF6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="DG6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="DH6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="DI6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="DJ6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>M</v>
+      </c>
+      <c r="DK6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="DL6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>W</v>
+      </c>
+      <c r="DM6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>T</v>
+      </c>
+      <c r="DN6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>F</v>
+      </c>
+      <c r="DO6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
+      <c r="DP6" s="10" t="str">
+        <f t="shared" si="46"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:120" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
@@ -2796,8 +3563,64 @@
       <c r="BJ7" s="18"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="18"/>
+      <c r="BQ7" s="18"/>
+      <c r="BR7" s="18"/>
+      <c r="BS7" s="18"/>
+      <c r="BT7" s="18"/>
+      <c r="BU7" s="18"/>
+      <c r="BV7" s="18"/>
+      <c r="BW7" s="18"/>
+      <c r="BX7" s="18"/>
+      <c r="BY7" s="18"/>
+      <c r="BZ7" s="18"/>
+      <c r="CA7" s="18"/>
+      <c r="CB7" s="18"/>
+      <c r="CC7" s="18"/>
+      <c r="CD7" s="18"/>
+      <c r="CE7" s="18"/>
+      <c r="CF7" s="18"/>
+      <c r="CG7" s="18"/>
+      <c r="CH7" s="18"/>
+      <c r="CI7" s="18"/>
+      <c r="CJ7" s="18"/>
+      <c r="CK7" s="18"/>
+      <c r="CL7" s="18"/>
+      <c r="CM7" s="18"/>
+      <c r="CN7" s="18"/>
+      <c r="CO7" s="18"/>
+      <c r="CP7" s="18"/>
+      <c r="CQ7" s="18"/>
+      <c r="CR7" s="18"/>
+      <c r="CS7" s="18"/>
+      <c r="CT7" s="18"/>
+      <c r="CU7" s="18"/>
+      <c r="CV7" s="18"/>
+      <c r="CW7" s="18"/>
+      <c r="CX7" s="18"/>
+      <c r="CY7" s="18"/>
+      <c r="CZ7" s="18"/>
+      <c r="DA7" s="18"/>
+      <c r="DB7" s="18"/>
+      <c r="DC7" s="18"/>
+      <c r="DD7" s="18"/>
+      <c r="DE7" s="18"/>
+      <c r="DF7" s="18"/>
+      <c r="DG7" s="18"/>
+      <c r="DH7" s="18"/>
+      <c r="DI7" s="18"/>
+      <c r="DJ7" s="18"/>
+      <c r="DK7" s="18"/>
+      <c r="DL7" s="18"/>
+      <c r="DM7" s="18"/>
+      <c r="DN7" s="18"/>
+      <c r="DO7" s="18"/>
+      <c r="DP7" s="18"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
@@ -2810,7 +3633,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H21" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H21" si="47">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="18"/>
@@ -2869,8 +3692,64 @@
       <c r="BJ8" s="18"/>
       <c r="BK8" s="18"/>
       <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="18"/>
+      <c r="BS8" s="18"/>
+      <c r="BT8" s="18"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="18"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="18"/>
+      <c r="CB8" s="18"/>
+      <c r="CC8" s="18"/>
+      <c r="CD8" s="18"/>
+      <c r="CE8" s="18"/>
+      <c r="CF8" s="18"/>
+      <c r="CG8" s="18"/>
+      <c r="CH8" s="18"/>
+      <c r="CI8" s="18"/>
+      <c r="CJ8" s="18"/>
+      <c r="CK8" s="18"/>
+      <c r="CL8" s="18"/>
+      <c r="CM8" s="18"/>
+      <c r="CN8" s="18"/>
+      <c r="CO8" s="18"/>
+      <c r="CP8" s="18"/>
+      <c r="CQ8" s="18"/>
+      <c r="CR8" s="18"/>
+      <c r="CS8" s="18"/>
+      <c r="CT8" s="18"/>
+      <c r="CU8" s="18"/>
+      <c r="CV8" s="18"/>
+      <c r="CW8" s="18"/>
+      <c r="CX8" s="18"/>
+      <c r="CY8" s="18"/>
+      <c r="CZ8" s="18"/>
+      <c r="DA8" s="18"/>
+      <c r="DB8" s="18"/>
+      <c r="DC8" s="18"/>
+      <c r="DD8" s="18"/>
+      <c r="DE8" s="18"/>
+      <c r="DF8" s="18"/>
+      <c r="DG8" s="18"/>
+      <c r="DH8" s="18"/>
+      <c r="DI8" s="18"/>
+      <c r="DJ8" s="18"/>
+      <c r="DK8" s="18"/>
+      <c r="DL8" s="18"/>
+      <c r="DM8" s="18"/>
+      <c r="DN8" s="18"/>
+      <c r="DO8" s="18"/>
+      <c r="DP8" s="18"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
@@ -2883,7 +3762,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I9" s="18"/>
@@ -2942,8 +3821,64 @@
       <c r="BJ9" s="18"/>
       <c r="BK9" s="18"/>
       <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18"/>
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18"/>
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18"/>
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18"/>
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18"/>
+      <c r="CI9" s="18"/>
+      <c r="CJ9" s="18"/>
+      <c r="CK9" s="18"/>
+      <c r="CL9" s="18"/>
+      <c r="CM9" s="18"/>
+      <c r="CN9" s="18"/>
+      <c r="CO9" s="18"/>
+      <c r="CP9" s="18"/>
+      <c r="CQ9" s="18"/>
+      <c r="CR9" s="18"/>
+      <c r="CS9" s="18"/>
+      <c r="CT9" s="18"/>
+      <c r="CU9" s="18"/>
+      <c r="CV9" s="18"/>
+      <c r="CW9" s="18"/>
+      <c r="CX9" s="18"/>
+      <c r="CY9" s="18"/>
+      <c r="CZ9" s="18"/>
+      <c r="DA9" s="18"/>
+      <c r="DB9" s="18"/>
+      <c r="DC9" s="18"/>
+      <c r="DD9" s="18"/>
+      <c r="DE9" s="18"/>
+      <c r="DF9" s="18"/>
+      <c r="DG9" s="18"/>
+      <c r="DH9" s="18"/>
+      <c r="DI9" s="18"/>
+      <c r="DJ9" s="18"/>
+      <c r="DK9" s="18"/>
+      <c r="DL9" s="18"/>
+      <c r="DM9" s="18"/>
+      <c r="DN9" s="18"/>
+      <c r="DO9" s="18"/>
+      <c r="DP9" s="18"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
@@ -2956,7 +3891,7 @@
       <c r="F10" s="54"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I10" s="18"/>
@@ -3015,8 +3950,64 @@
       <c r="BJ10" s="18"/>
       <c r="BK10" s="18"/>
       <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="CA10" s="18"/>
+      <c r="CB10" s="18"/>
+      <c r="CC10" s="18"/>
+      <c r="CD10" s="18"/>
+      <c r="CE10" s="18"/>
+      <c r="CF10" s="18"/>
+      <c r="CG10" s="18"/>
+      <c r="CH10" s="18"/>
+      <c r="CI10" s="18"/>
+      <c r="CJ10" s="18"/>
+      <c r="CK10" s="18"/>
+      <c r="CL10" s="18"/>
+      <c r="CM10" s="18"/>
+      <c r="CN10" s="18"/>
+      <c r="CO10" s="18"/>
+      <c r="CP10" s="18"/>
+      <c r="CQ10" s="18"/>
+      <c r="CR10" s="18"/>
+      <c r="CS10" s="18"/>
+      <c r="CT10" s="18"/>
+      <c r="CU10" s="18"/>
+      <c r="CV10" s="18"/>
+      <c r="CW10" s="18"/>
+      <c r="CX10" s="18"/>
+      <c r="CY10" s="18"/>
+      <c r="CZ10" s="18"/>
+      <c r="DA10" s="18"/>
+      <c r="DB10" s="18"/>
+      <c r="DC10" s="18"/>
+      <c r="DD10" s="18"/>
+      <c r="DE10" s="18"/>
+      <c r="DF10" s="18"/>
+      <c r="DG10" s="18"/>
+      <c r="DH10" s="18"/>
+      <c r="DI10" s="18"/>
+      <c r="DJ10" s="18"/>
+      <c r="DK10" s="18"/>
+      <c r="DL10" s="18"/>
+      <c r="DM10" s="18"/>
+      <c r="DN10" s="18"/>
+      <c r="DO10" s="18"/>
+      <c r="DP10" s="18"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="45" t="s">
         <v>16</v>
@@ -3027,7 +4018,7 @@
       <c r="F11" s="55"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I11" s="18"/>
@@ -3086,8 +4077,64 @@
       <c r="BJ11" s="18"/>
       <c r="BK11" s="18"/>
       <c r="BL11" s="18"/>
+      <c r="BM11" s="18"/>
+      <c r="BN11" s="18"/>
+      <c r="BO11" s="18"/>
+      <c r="BP11" s="18"/>
+      <c r="BQ11" s="18"/>
+      <c r="BR11" s="18"/>
+      <c r="BS11" s="18"/>
+      <c r="BT11" s="18"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="18"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="18"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="18"/>
+      <c r="CF11" s="18"/>
+      <c r="CG11" s="18"/>
+      <c r="CH11" s="18"/>
+      <c r="CI11" s="18"/>
+      <c r="CJ11" s="18"/>
+      <c r="CK11" s="18"/>
+      <c r="CL11" s="18"/>
+      <c r="CM11" s="18"/>
+      <c r="CN11" s="18"/>
+      <c r="CO11" s="18"/>
+      <c r="CP11" s="18"/>
+      <c r="CQ11" s="18"/>
+      <c r="CR11" s="18"/>
+      <c r="CS11" s="18"/>
+      <c r="CT11" s="18"/>
+      <c r="CU11" s="18"/>
+      <c r="CV11" s="18"/>
+      <c r="CW11" s="18"/>
+      <c r="CX11" s="18"/>
+      <c r="CY11" s="18"/>
+      <c r="CZ11" s="18"/>
+      <c r="DA11" s="18"/>
+      <c r="DB11" s="18"/>
+      <c r="DC11" s="18"/>
+      <c r="DD11" s="18"/>
+      <c r="DE11" s="18"/>
+      <c r="DF11" s="18"/>
+      <c r="DG11" s="18"/>
+      <c r="DH11" s="18"/>
+      <c r="DI11" s="18"/>
+      <c r="DJ11" s="18"/>
+      <c r="DK11" s="18"/>
+      <c r="DL11" s="18"/>
+      <c r="DM11" s="18"/>
+      <c r="DN11" s="18"/>
+      <c r="DO11" s="18"/>
+      <c r="DP11" s="18"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
@@ -3098,7 +4145,7 @@
       <c r="F12" s="57"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I12" s="18"/>
@@ -3157,8 +4204,64 @@
       <c r="BJ12" s="18"/>
       <c r="BK12" s="18"/>
       <c r="BL12" s="18"/>
+      <c r="BM12" s="18"/>
+      <c r="BN12" s="18"/>
+      <c r="BO12" s="18"/>
+      <c r="BP12" s="18"/>
+      <c r="BQ12" s="18"/>
+      <c r="BR12" s="18"/>
+      <c r="BS12" s="18"/>
+      <c r="BT12" s="18"/>
+      <c r="BU12" s="18"/>
+      <c r="BV12" s="18"/>
+      <c r="BW12" s="18"/>
+      <c r="BX12" s="18"/>
+      <c r="BY12" s="18"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="18"/>
+      <c r="CB12" s="18"/>
+      <c r="CC12" s="18"/>
+      <c r="CD12" s="18"/>
+      <c r="CE12" s="18"/>
+      <c r="CF12" s="18"/>
+      <c r="CG12" s="18"/>
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="18"/>
+      <c r="CJ12" s="18"/>
+      <c r="CK12" s="18"/>
+      <c r="CL12" s="18"/>
+      <c r="CM12" s="18"/>
+      <c r="CN12" s="18"/>
+      <c r="CO12" s="18"/>
+      <c r="CP12" s="18"/>
+      <c r="CQ12" s="18"/>
+      <c r="CR12" s="18"/>
+      <c r="CS12" s="18"/>
+      <c r="CT12" s="18"/>
+      <c r="CU12" s="18"/>
+      <c r="CV12" s="18"/>
+      <c r="CW12" s="18"/>
+      <c r="CX12" s="18"/>
+      <c r="CY12" s="18"/>
+      <c r="CZ12" s="18"/>
+      <c r="DA12" s="18"/>
+      <c r="DB12" s="18"/>
+      <c r="DC12" s="18"/>
+      <c r="DD12" s="18"/>
+      <c r="DE12" s="18"/>
+      <c r="DF12" s="18"/>
+      <c r="DG12" s="18"/>
+      <c r="DH12" s="18"/>
+      <c r="DI12" s="18"/>
+      <c r="DJ12" s="18"/>
+      <c r="DK12" s="18"/>
+      <c r="DL12" s="18"/>
+      <c r="DM12" s="18"/>
+      <c r="DN12" s="18"/>
+      <c r="DO12" s="18"/>
+      <c r="DP12" s="18"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="46" t="s">
         <v>16</v>
@@ -3169,7 +4272,7 @@
       <c r="F13" s="58"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I13" s="18"/>
@@ -3228,8 +4331,64 @@
       <c r="BJ13" s="18"/>
       <c r="BK13" s="18"/>
       <c r="BL13" s="18"/>
+      <c r="BM13" s="18"/>
+      <c r="BN13" s="18"/>
+      <c r="BO13" s="18"/>
+      <c r="BP13" s="18"/>
+      <c r="BQ13" s="18"/>
+      <c r="BR13" s="18"/>
+      <c r="BS13" s="18"/>
+      <c r="BT13" s="18"/>
+      <c r="BU13" s="18"/>
+      <c r="BV13" s="18"/>
+      <c r="BW13" s="18"/>
+      <c r="BX13" s="18"/>
+      <c r="BY13" s="18"/>
+      <c r="BZ13" s="18"/>
+      <c r="CA13" s="18"/>
+      <c r="CB13" s="18"/>
+      <c r="CC13" s="18"/>
+      <c r="CD13" s="18"/>
+      <c r="CE13" s="18"/>
+      <c r="CF13" s="18"/>
+      <c r="CG13" s="18"/>
+      <c r="CH13" s="18"/>
+      <c r="CI13" s="18"/>
+      <c r="CJ13" s="18"/>
+      <c r="CK13" s="18"/>
+      <c r="CL13" s="18"/>
+      <c r="CM13" s="18"/>
+      <c r="CN13" s="18"/>
+      <c r="CO13" s="18"/>
+      <c r="CP13" s="18"/>
+      <c r="CQ13" s="18"/>
+      <c r="CR13" s="18"/>
+      <c r="CS13" s="18"/>
+      <c r="CT13" s="18"/>
+      <c r="CU13" s="18"/>
+      <c r="CV13" s="18"/>
+      <c r="CW13" s="18"/>
+      <c r="CX13" s="18"/>
+      <c r="CY13" s="18"/>
+      <c r="CZ13" s="18"/>
+      <c r="DA13" s="18"/>
+      <c r="DB13" s="18"/>
+      <c r="DC13" s="18"/>
+      <c r="DD13" s="18"/>
+      <c r="DE13" s="18"/>
+      <c r="DF13" s="18"/>
+      <c r="DG13" s="18"/>
+      <c r="DH13" s="18"/>
+      <c r="DI13" s="18"/>
+      <c r="DJ13" s="18"/>
+      <c r="DK13" s="18"/>
+      <c r="DL13" s="18"/>
+      <c r="DM13" s="18"/>
+      <c r="DN13" s="18"/>
+      <c r="DO13" s="18"/>
+      <c r="DP13" s="18"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
@@ -3301,8 +4460,64 @@
       <c r="BJ14" s="18"/>
       <c r="BK14" s="18"/>
       <c r="BL14" s="18"/>
+      <c r="BM14" s="18"/>
+      <c r="BN14" s="18"/>
+      <c r="BO14" s="18"/>
+      <c r="BP14" s="18"/>
+      <c r="BQ14" s="18"/>
+      <c r="BR14" s="18"/>
+      <c r="BS14" s="18"/>
+      <c r="BT14" s="18"/>
+      <c r="BU14" s="18"/>
+      <c r="BV14" s="18"/>
+      <c r="BW14" s="18"/>
+      <c r="BX14" s="18"/>
+      <c r="BY14" s="18"/>
+      <c r="BZ14" s="18"/>
+      <c r="CA14" s="18"/>
+      <c r="CB14" s="18"/>
+      <c r="CC14" s="18"/>
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="18"/>
+      <c r="CF14" s="18"/>
+      <c r="CG14" s="18"/>
+      <c r="CH14" s="18"/>
+      <c r="CI14" s="18"/>
+      <c r="CJ14" s="18"/>
+      <c r="CK14" s="18"/>
+      <c r="CL14" s="18"/>
+      <c r="CM14" s="18"/>
+      <c r="CN14" s="18"/>
+      <c r="CO14" s="18"/>
+      <c r="CP14" s="18"/>
+      <c r="CQ14" s="18"/>
+      <c r="CR14" s="18"/>
+      <c r="CS14" s="18"/>
+      <c r="CT14" s="18"/>
+      <c r="CU14" s="18"/>
+      <c r="CV14" s="18"/>
+      <c r="CW14" s="18"/>
+      <c r="CX14" s="18"/>
+      <c r="CY14" s="18"/>
+      <c r="CZ14" s="18"/>
+      <c r="DA14" s="18"/>
+      <c r="DB14" s="18"/>
+      <c r="DC14" s="18"/>
+      <c r="DD14" s="18"/>
+      <c r="DE14" s="18"/>
+      <c r="DF14" s="18"/>
+      <c r="DG14" s="18"/>
+      <c r="DH14" s="18"/>
+      <c r="DI14" s="18"/>
+      <c r="DJ14" s="18"/>
+      <c r="DK14" s="18"/>
+      <c r="DL14" s="18"/>
+      <c r="DM14" s="18"/>
+      <c r="DN14" s="18"/>
+      <c r="DO14" s="18"/>
+      <c r="DP14" s="18"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="47" t="s">
         <v>16</v>
@@ -3372,8 +4587,64 @@
       <c r="BJ15" s="18"/>
       <c r="BK15" s="18"/>
       <c r="BL15" s="18"/>
+      <c r="BM15" s="18"/>
+      <c r="BN15" s="18"/>
+      <c r="BO15" s="18"/>
+      <c r="BP15" s="18"/>
+      <c r="BQ15" s="18"/>
+      <c r="BR15" s="18"/>
+      <c r="BS15" s="18"/>
+      <c r="BT15" s="18"/>
+      <c r="BU15" s="18"/>
+      <c r="BV15" s="18"/>
+      <c r="BW15" s="18"/>
+      <c r="BX15" s="18"/>
+      <c r="BY15" s="18"/>
+      <c r="BZ15" s="18"/>
+      <c r="CA15" s="18"/>
+      <c r="CB15" s="18"/>
+      <c r="CC15" s="18"/>
+      <c r="CD15" s="18"/>
+      <c r="CE15" s="18"/>
+      <c r="CF15" s="18"/>
+      <c r="CG15" s="18"/>
+      <c r="CH15" s="18"/>
+      <c r="CI15" s="18"/>
+      <c r="CJ15" s="18"/>
+      <c r="CK15" s="18"/>
+      <c r="CL15" s="18"/>
+      <c r="CM15" s="18"/>
+      <c r="CN15" s="18"/>
+      <c r="CO15" s="18"/>
+      <c r="CP15" s="18"/>
+      <c r="CQ15" s="18"/>
+      <c r="CR15" s="18"/>
+      <c r="CS15" s="18"/>
+      <c r="CT15" s="18"/>
+      <c r="CU15" s="18"/>
+      <c r="CV15" s="18"/>
+      <c r="CW15" s="18"/>
+      <c r="CX15" s="18"/>
+      <c r="CY15" s="18"/>
+      <c r="CZ15" s="18"/>
+      <c r="DA15" s="18"/>
+      <c r="DB15" s="18"/>
+      <c r="DC15" s="18"/>
+      <c r="DD15" s="18"/>
+      <c r="DE15" s="18"/>
+      <c r="DF15" s="18"/>
+      <c r="DG15" s="18"/>
+      <c r="DH15" s="18"/>
+      <c r="DI15" s="18"/>
+      <c r="DJ15" s="18"/>
+      <c r="DK15" s="18"/>
+      <c r="DL15" s="18"/>
+      <c r="DM15" s="18"/>
+      <c r="DN15" s="18"/>
+      <c r="DO15" s="18"/>
+      <c r="DP15" s="18"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="77" t="s">
         <v>45</v>
@@ -3384,7 +4655,7 @@
       <c r="F16" s="81"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I16" s="18"/>
@@ -3443,8 +4714,64 @@
       <c r="BJ16" s="18"/>
       <c r="BK16" s="18"/>
       <c r="BL16" s="18"/>
+      <c r="BM16" s="18"/>
+      <c r="BN16" s="18"/>
+      <c r="BO16" s="18"/>
+      <c r="BP16" s="18"/>
+      <c r="BQ16" s="18"/>
+      <c r="BR16" s="18"/>
+      <c r="BS16" s="18"/>
+      <c r="BT16" s="18"/>
+      <c r="BU16" s="18"/>
+      <c r="BV16" s="18"/>
+      <c r="BW16" s="18"/>
+      <c r="BX16" s="18"/>
+      <c r="BY16" s="18"/>
+      <c r="BZ16" s="18"/>
+      <c r="CA16" s="18"/>
+      <c r="CB16" s="18"/>
+      <c r="CC16" s="18"/>
+      <c r="CD16" s="18"/>
+      <c r="CE16" s="18"/>
+      <c r="CF16" s="18"/>
+      <c r="CG16" s="18"/>
+      <c r="CH16" s="18"/>
+      <c r="CI16" s="18"/>
+      <c r="CJ16" s="18"/>
+      <c r="CK16" s="18"/>
+      <c r="CL16" s="18"/>
+      <c r="CM16" s="18"/>
+      <c r="CN16" s="18"/>
+      <c r="CO16" s="18"/>
+      <c r="CP16" s="18"/>
+      <c r="CQ16" s="18"/>
+      <c r="CR16" s="18"/>
+      <c r="CS16" s="18"/>
+      <c r="CT16" s="18"/>
+      <c r="CU16" s="18"/>
+      <c r="CV16" s="18"/>
+      <c r="CW16" s="18"/>
+      <c r="CX16" s="18"/>
+      <c r="CY16" s="18"/>
+      <c r="CZ16" s="18"/>
+      <c r="DA16" s="18"/>
+      <c r="DB16" s="18"/>
+      <c r="DC16" s="18"/>
+      <c r="DD16" s="18"/>
+      <c r="DE16" s="18"/>
+      <c r="DF16" s="18"/>
+      <c r="DG16" s="18"/>
+      <c r="DH16" s="18"/>
+      <c r="DI16" s="18"/>
+      <c r="DJ16" s="18"/>
+      <c r="DK16" s="18"/>
+      <c r="DL16" s="18"/>
+      <c r="DM16" s="18"/>
+      <c r="DN16" s="18"/>
+      <c r="DO16" s="18"/>
+      <c r="DP16" s="18"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="73" t="s">
         <v>16</v>
@@ -3455,7 +4782,7 @@
       <c r="F17" s="76"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I17" s="18"/>
@@ -3514,8 +4841,64 @@
       <c r="BJ17" s="18"/>
       <c r="BK17" s="18"/>
       <c r="BL17" s="18"/>
+      <c r="BM17" s="18"/>
+      <c r="BN17" s="18"/>
+      <c r="BO17" s="18"/>
+      <c r="BP17" s="18"/>
+      <c r="BQ17" s="18"/>
+      <c r="BR17" s="18"/>
+      <c r="BS17" s="18"/>
+      <c r="BT17" s="18"/>
+      <c r="BU17" s="18"/>
+      <c r="BV17" s="18"/>
+      <c r="BW17" s="18"/>
+      <c r="BX17" s="18"/>
+      <c r="BY17" s="18"/>
+      <c r="BZ17" s="18"/>
+      <c r="CA17" s="18"/>
+      <c r="CB17" s="18"/>
+      <c r="CC17" s="18"/>
+      <c r="CD17" s="18"/>
+      <c r="CE17" s="18"/>
+      <c r="CF17" s="18"/>
+      <c r="CG17" s="18"/>
+      <c r="CH17" s="18"/>
+      <c r="CI17" s="18"/>
+      <c r="CJ17" s="18"/>
+      <c r="CK17" s="18"/>
+      <c r="CL17" s="18"/>
+      <c r="CM17" s="18"/>
+      <c r="CN17" s="18"/>
+      <c r="CO17" s="18"/>
+      <c r="CP17" s="18"/>
+      <c r="CQ17" s="18"/>
+      <c r="CR17" s="18"/>
+      <c r="CS17" s="18"/>
+      <c r="CT17" s="18"/>
+      <c r="CU17" s="18"/>
+      <c r="CV17" s="18"/>
+      <c r="CW17" s="18"/>
+      <c r="CX17" s="18"/>
+      <c r="CY17" s="18"/>
+      <c r="CZ17" s="18"/>
+      <c r="DA17" s="18"/>
+      <c r="DB17" s="18"/>
+      <c r="DC17" s="18"/>
+      <c r="DD17" s="18"/>
+      <c r="DE17" s="18"/>
+      <c r="DF17" s="18"/>
+      <c r="DG17" s="18"/>
+      <c r="DH17" s="18"/>
+      <c r="DI17" s="18"/>
+      <c r="DJ17" s="18"/>
+      <c r="DK17" s="18"/>
+      <c r="DL17" s="18"/>
+      <c r="DM17" s="18"/>
+      <c r="DN17" s="18"/>
+      <c r="DO17" s="18"/>
+      <c r="DP17" s="18"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="82" t="s">
         <v>46</v>
@@ -3526,7 +4909,7 @@
       <c r="F18" s="86"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I18" s="18"/>
@@ -3585,8 +4968,64 @@
       <c r="BJ18" s="18"/>
       <c r="BK18" s="18"/>
       <c r="BL18" s="18"/>
+      <c r="BM18" s="18"/>
+      <c r="BN18" s="18"/>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="18"/>
+      <c r="BR18" s="18"/>
+      <c r="BS18" s="18"/>
+      <c r="BT18" s="18"/>
+      <c r="BU18" s="18"/>
+      <c r="BV18" s="18"/>
+      <c r="BW18" s="18"/>
+      <c r="BX18" s="18"/>
+      <c r="BY18" s="18"/>
+      <c r="BZ18" s="18"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
+      <c r="CG18" s="18"/>
+      <c r="CH18" s="18"/>
+      <c r="CI18" s="18"/>
+      <c r="CJ18" s="18"/>
+      <c r="CK18" s="18"/>
+      <c r="CL18" s="18"/>
+      <c r="CM18" s="18"/>
+      <c r="CN18" s="18"/>
+      <c r="CO18" s="18"/>
+      <c r="CP18" s="18"/>
+      <c r="CQ18" s="18"/>
+      <c r="CR18" s="18"/>
+      <c r="CS18" s="18"/>
+      <c r="CT18" s="18"/>
+      <c r="CU18" s="18"/>
+      <c r="CV18" s="18"/>
+      <c r="CW18" s="18"/>
+      <c r="CX18" s="18"/>
+      <c r="CY18" s="18"/>
+      <c r="CZ18" s="18"/>
+      <c r="DA18" s="18"/>
+      <c r="DB18" s="18"/>
+      <c r="DC18" s="18"/>
+      <c r="DD18" s="18"/>
+      <c r="DE18" s="18"/>
+      <c r="DF18" s="18"/>
+      <c r="DG18" s="18"/>
+      <c r="DH18" s="18"/>
+      <c r="DI18" s="18"/>
+      <c r="DJ18" s="18"/>
+      <c r="DK18" s="18"/>
+      <c r="DL18" s="18"/>
+      <c r="DM18" s="18"/>
+      <c r="DN18" s="18"/>
+      <c r="DO18" s="18"/>
+      <c r="DP18" s="18"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="87" t="s">
         <v>16</v>
@@ -3597,7 +5036,7 @@
       <c r="F19" s="90"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I19" s="18"/>
@@ -3656,19 +5095,75 @@
       <c r="BJ19" s="18"/>
       <c r="BK19" s="18"/>
       <c r="BL19" s="18"/>
+      <c r="BM19" s="18"/>
+      <c r="BN19" s="18"/>
+      <c r="BO19" s="18"/>
+      <c r="BP19" s="18"/>
+      <c r="BQ19" s="18"/>
+      <c r="BR19" s="18"/>
+      <c r="BS19" s="18"/>
+      <c r="BT19" s="18"/>
+      <c r="BU19" s="18"/>
+      <c r="BV19" s="18"/>
+      <c r="BW19" s="18"/>
+      <c r="BX19" s="18"/>
+      <c r="BY19" s="18"/>
+      <c r="BZ19" s="18"/>
+      <c r="CA19" s="18"/>
+      <c r="CB19" s="18"/>
+      <c r="CC19" s="18"/>
+      <c r="CD19" s="18"/>
+      <c r="CE19" s="18"/>
+      <c r="CF19" s="18"/>
+      <c r="CG19" s="18"/>
+      <c r="CH19" s="18"/>
+      <c r="CI19" s="18"/>
+      <c r="CJ19" s="18"/>
+      <c r="CK19" s="18"/>
+      <c r="CL19" s="18"/>
+      <c r="CM19" s="18"/>
+      <c r="CN19" s="18"/>
+      <c r="CO19" s="18"/>
+      <c r="CP19" s="18"/>
+      <c r="CQ19" s="18"/>
+      <c r="CR19" s="18"/>
+      <c r="CS19" s="18"/>
+      <c r="CT19" s="18"/>
+      <c r="CU19" s="18"/>
+      <c r="CV19" s="18"/>
+      <c r="CW19" s="18"/>
+      <c r="CX19" s="18"/>
+      <c r="CY19" s="18"/>
+      <c r="CZ19" s="18"/>
+      <c r="DA19" s="18"/>
+      <c r="DB19" s="18"/>
+      <c r="DC19" s="18"/>
+      <c r="DD19" s="18"/>
+      <c r="DE19" s="18"/>
+      <c r="DF19" s="18"/>
+      <c r="DG19" s="18"/>
+      <c r="DH19" s="18"/>
+      <c r="DI19" s="18"/>
+      <c r="DJ19" s="18"/>
+      <c r="DK19" s="18"/>
+      <c r="DL19" s="18"/>
+      <c r="DM19" s="18"/>
+      <c r="DN19" s="18"/>
+      <c r="DO19" s="18"/>
+      <c r="DP19" s="18"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I20" s="18"/>
@@ -3727,19 +5222,75 @@
       <c r="BJ20" s="18"/>
       <c r="BK20" s="18"/>
       <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
+      <c r="BQ20" s="18"/>
+      <c r="BR20" s="18"/>
+      <c r="BS20" s="18"/>
+      <c r="BT20" s="18"/>
+      <c r="BU20" s="18"/>
+      <c r="BV20" s="18"/>
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
+      <c r="BY20" s="18"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="18"/>
+      <c r="CB20" s="18"/>
+      <c r="CC20" s="18"/>
+      <c r="CD20" s="18"/>
+      <c r="CE20" s="18"/>
+      <c r="CF20" s="18"/>
+      <c r="CG20" s="18"/>
+      <c r="CH20" s="18"/>
+      <c r="CI20" s="18"/>
+      <c r="CJ20" s="18"/>
+      <c r="CK20" s="18"/>
+      <c r="CL20" s="18"/>
+      <c r="CM20" s="18"/>
+      <c r="CN20" s="18"/>
+      <c r="CO20" s="18"/>
+      <c r="CP20" s="18"/>
+      <c r="CQ20" s="18"/>
+      <c r="CR20" s="18"/>
+      <c r="CS20" s="18"/>
+      <c r="CT20" s="18"/>
+      <c r="CU20" s="18"/>
+      <c r="CV20" s="18"/>
+      <c r="CW20" s="18"/>
+      <c r="CX20" s="18"/>
+      <c r="CY20" s="18"/>
+      <c r="CZ20" s="18"/>
+      <c r="DA20" s="18"/>
+      <c r="DB20" s="18"/>
+      <c r="DC20" s="18"/>
+      <c r="DD20" s="18"/>
+      <c r="DE20" s="18"/>
+      <c r="DF20" s="18"/>
+      <c r="DG20" s="18"/>
+      <c r="DH20" s="18"/>
+      <c r="DI20" s="18"/>
+      <c r="DJ20" s="18"/>
+      <c r="DK20" s="18"/>
+      <c r="DL20" s="18"/>
+      <c r="DM20" s="18"/>
+      <c r="DN20" s="18"/>
+      <c r="DO20" s="18"/>
+      <c r="DP20" s="18"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I21" s="18"/>
@@ -3798,8 +5349,64 @@
       <c r="BJ21" s="18"/>
       <c r="BK21" s="18"/>
       <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
+      <c r="BR21" s="18"/>
+      <c r="BS21" s="18"/>
+      <c r="BT21" s="18"/>
+      <c r="BU21" s="18"/>
+      <c r="BV21" s="18"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="18"/>
+      <c r="BZ21" s="18"/>
+      <c r="CA21" s="18"/>
+      <c r="CB21" s="18"/>
+      <c r="CC21" s="18"/>
+      <c r="CD21" s="18"/>
+      <c r="CE21" s="18"/>
+      <c r="CF21" s="18"/>
+      <c r="CG21" s="18"/>
+      <c r="CH21" s="18"/>
+      <c r="CI21" s="18"/>
+      <c r="CJ21" s="18"/>
+      <c r="CK21" s="18"/>
+      <c r="CL21" s="18"/>
+      <c r="CM21" s="18"/>
+      <c r="CN21" s="18"/>
+      <c r="CO21" s="18"/>
+      <c r="CP21" s="18"/>
+      <c r="CQ21" s="18"/>
+      <c r="CR21" s="18"/>
+      <c r="CS21" s="18"/>
+      <c r="CT21" s="18"/>
+      <c r="CU21" s="18"/>
+      <c r="CV21" s="18"/>
+      <c r="CW21" s="18"/>
+      <c r="CX21" s="18"/>
+      <c r="CY21" s="18"/>
+      <c r="CZ21" s="18"/>
+      <c r="DA21" s="18"/>
+      <c r="DB21" s="18"/>
+      <c r="DC21" s="18"/>
+      <c r="DD21" s="18"/>
+      <c r="DE21" s="18"/>
+      <c r="DF21" s="18"/>
+      <c r="DG21" s="18"/>
+      <c r="DH21" s="18"/>
+      <c r="DI21" s="18"/>
+      <c r="DJ21" s="18"/>
+      <c r="DK21" s="18"/>
+      <c r="DL21" s="18"/>
+      <c r="DM21" s="18"/>
+      <c r="DN21" s="18"/>
+      <c r="DO21" s="18"/>
+      <c r="DP21" s="18"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="G22" s="91"/>
       <c r="H22" s="91"/>
@@ -3859,8 +5466,64 @@
       <c r="BJ22" s="92"/>
       <c r="BK22" s="92"/>
       <c r="BL22" s="92"/>
+      <c r="BM22" s="92"/>
+      <c r="BN22" s="92"/>
+      <c r="BO22" s="92"/>
+      <c r="BP22" s="92"/>
+      <c r="BQ22" s="92"/>
+      <c r="BR22" s="92"/>
+      <c r="BS22" s="92"/>
+      <c r="BT22" s="92"/>
+      <c r="BU22" s="92"/>
+      <c r="BV22" s="92"/>
+      <c r="BW22" s="92"/>
+      <c r="BX22" s="92"/>
+      <c r="BY22" s="92"/>
+      <c r="BZ22" s="92"/>
+      <c r="CA22" s="92"/>
+      <c r="CB22" s="92"/>
+      <c r="CC22" s="92"/>
+      <c r="CD22" s="92"/>
+      <c r="CE22" s="92"/>
+      <c r="CF22" s="92"/>
+      <c r="CG22" s="92"/>
+      <c r="CH22" s="92"/>
+      <c r="CI22" s="92"/>
+      <c r="CJ22" s="92"/>
+      <c r="CK22" s="92"/>
+      <c r="CL22" s="92"/>
+      <c r="CM22" s="92"/>
+      <c r="CN22" s="92"/>
+      <c r="CO22" s="92"/>
+      <c r="CP22" s="92"/>
+      <c r="CQ22" s="92"/>
+      <c r="CR22" s="92"/>
+      <c r="CS22" s="92"/>
+      <c r="CT22" s="92"/>
+      <c r="CU22" s="92"/>
+      <c r="CV22" s="92"/>
+      <c r="CW22" s="92"/>
+      <c r="CX22" s="92"/>
+      <c r="CY22" s="92"/>
+      <c r="CZ22" s="92"/>
+      <c r="DA22" s="92"/>
+      <c r="DB22" s="92"/>
+      <c r="DC22" s="92"/>
+      <c r="DD22" s="92"/>
+      <c r="DE22" s="92"/>
+      <c r="DF22" s="92"/>
+      <c r="DG22" s="92"/>
+      <c r="DH22" s="92"/>
+      <c r="DI22" s="92"/>
+      <c r="DJ22" s="92"/>
+      <c r="DK22" s="92"/>
+      <c r="DL22" s="92"/>
+      <c r="DM22" s="92"/>
+      <c r="DN22" s="92"/>
+      <c r="DO22" s="92"/>
+      <c r="DP22" s="92"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="G23" s="91"/>
       <c r="H23" s="91"/>
@@ -3920,8 +5583,64 @@
       <c r="BJ23" s="92"/>
       <c r="BK23" s="92"/>
       <c r="BL23" s="92"/>
+      <c r="BM23" s="92"/>
+      <c r="BN23" s="92"/>
+      <c r="BO23" s="92"/>
+      <c r="BP23" s="92"/>
+      <c r="BQ23" s="92"/>
+      <c r="BR23" s="92"/>
+      <c r="BS23" s="92"/>
+      <c r="BT23" s="92"/>
+      <c r="BU23" s="92"/>
+      <c r="BV23" s="92"/>
+      <c r="BW23" s="92"/>
+      <c r="BX23" s="92"/>
+      <c r="BY23" s="92"/>
+      <c r="BZ23" s="92"/>
+      <c r="CA23" s="92"/>
+      <c r="CB23" s="92"/>
+      <c r="CC23" s="92"/>
+      <c r="CD23" s="92"/>
+      <c r="CE23" s="92"/>
+      <c r="CF23" s="92"/>
+      <c r="CG23" s="92"/>
+      <c r="CH23" s="92"/>
+      <c r="CI23" s="92"/>
+      <c r="CJ23" s="92"/>
+      <c r="CK23" s="92"/>
+      <c r="CL23" s="92"/>
+      <c r="CM23" s="92"/>
+      <c r="CN23" s="92"/>
+      <c r="CO23" s="92"/>
+      <c r="CP23" s="92"/>
+      <c r="CQ23" s="92"/>
+      <c r="CR23" s="92"/>
+      <c r="CS23" s="92"/>
+      <c r="CT23" s="92"/>
+      <c r="CU23" s="92"/>
+      <c r="CV23" s="92"/>
+      <c r="CW23" s="92"/>
+      <c r="CX23" s="92"/>
+      <c r="CY23" s="92"/>
+      <c r="CZ23" s="92"/>
+      <c r="DA23" s="92"/>
+      <c r="DB23" s="92"/>
+      <c r="DC23" s="92"/>
+      <c r="DD23" s="92"/>
+      <c r="DE23" s="92"/>
+      <c r="DF23" s="92"/>
+      <c r="DG23" s="92"/>
+      <c r="DH23" s="92"/>
+      <c r="DI23" s="92"/>
+      <c r="DJ23" s="92"/>
+      <c r="DK23" s="92"/>
+      <c r="DL23" s="92"/>
+      <c r="DM23" s="92"/>
+      <c r="DN23" s="92"/>
+      <c r="DO23" s="92"/>
+      <c r="DP23" s="92"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28"/>
       <c r="G24" s="91"/>
       <c r="H24" s="91"/>
@@ -3981,8 +5700,64 @@
       <c r="BJ24" s="92"/>
       <c r="BK24" s="92"/>
       <c r="BL24" s="92"/>
+      <c r="BM24" s="92"/>
+      <c r="BN24" s="92"/>
+      <c r="BO24" s="92"/>
+      <c r="BP24" s="92"/>
+      <c r="BQ24" s="92"/>
+      <c r="BR24" s="92"/>
+      <c r="BS24" s="92"/>
+      <c r="BT24" s="92"/>
+      <c r="BU24" s="92"/>
+      <c r="BV24" s="92"/>
+      <c r="BW24" s="92"/>
+      <c r="BX24" s="92"/>
+      <c r="BY24" s="92"/>
+      <c r="BZ24" s="92"/>
+      <c r="CA24" s="92"/>
+      <c r="CB24" s="92"/>
+      <c r="CC24" s="92"/>
+      <c r="CD24" s="92"/>
+      <c r="CE24" s="92"/>
+      <c r="CF24" s="92"/>
+      <c r="CG24" s="92"/>
+      <c r="CH24" s="92"/>
+      <c r="CI24" s="92"/>
+      <c r="CJ24" s="92"/>
+      <c r="CK24" s="92"/>
+      <c r="CL24" s="92"/>
+      <c r="CM24" s="92"/>
+      <c r="CN24" s="92"/>
+      <c r="CO24" s="92"/>
+      <c r="CP24" s="92"/>
+      <c r="CQ24" s="92"/>
+      <c r="CR24" s="92"/>
+      <c r="CS24" s="92"/>
+      <c r="CT24" s="92"/>
+      <c r="CU24" s="92"/>
+      <c r="CV24" s="92"/>
+      <c r="CW24" s="92"/>
+      <c r="CX24" s="92"/>
+      <c r="CY24" s="92"/>
+      <c r="CZ24" s="92"/>
+      <c r="DA24" s="92"/>
+      <c r="DB24" s="92"/>
+      <c r="DC24" s="92"/>
+      <c r="DD24" s="92"/>
+      <c r="DE24" s="92"/>
+      <c r="DF24" s="92"/>
+      <c r="DG24" s="92"/>
+      <c r="DH24" s="92"/>
+      <c r="DI24" s="92"/>
+      <c r="DJ24" s="92"/>
+      <c r="DK24" s="92"/>
+      <c r="DL24" s="92"/>
+      <c r="DM24" s="92"/>
+      <c r="DN24" s="92"/>
+      <c r="DO24" s="92"/>
+      <c r="DP24" s="92"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28"/>
       <c r="G25" s="91"/>
       <c r="H25" s="91"/>
@@ -4042,8 +5817,64 @@
       <c r="BJ25" s="92"/>
       <c r="BK25" s="92"/>
       <c r="BL25" s="92"/>
+      <c r="BM25" s="92"/>
+      <c r="BN25" s="92"/>
+      <c r="BO25" s="92"/>
+      <c r="BP25" s="92"/>
+      <c r="BQ25" s="92"/>
+      <c r="BR25" s="92"/>
+      <c r="BS25" s="92"/>
+      <c r="BT25" s="92"/>
+      <c r="BU25" s="92"/>
+      <c r="BV25" s="92"/>
+      <c r="BW25" s="92"/>
+      <c r="BX25" s="92"/>
+      <c r="BY25" s="92"/>
+      <c r="BZ25" s="92"/>
+      <c r="CA25" s="92"/>
+      <c r="CB25" s="92"/>
+      <c r="CC25" s="92"/>
+      <c r="CD25" s="92"/>
+      <c r="CE25" s="92"/>
+      <c r="CF25" s="92"/>
+      <c r="CG25" s="92"/>
+      <c r="CH25" s="92"/>
+      <c r="CI25" s="92"/>
+      <c r="CJ25" s="92"/>
+      <c r="CK25" s="92"/>
+      <c r="CL25" s="92"/>
+      <c r="CM25" s="92"/>
+      <c r="CN25" s="92"/>
+      <c r="CO25" s="92"/>
+      <c r="CP25" s="92"/>
+      <c r="CQ25" s="92"/>
+      <c r="CR25" s="92"/>
+      <c r="CS25" s="92"/>
+      <c r="CT25" s="92"/>
+      <c r="CU25" s="92"/>
+      <c r="CV25" s="92"/>
+      <c r="CW25" s="92"/>
+      <c r="CX25" s="92"/>
+      <c r="CY25" s="92"/>
+      <c r="CZ25" s="92"/>
+      <c r="DA25" s="92"/>
+      <c r="DB25" s="92"/>
+      <c r="DC25" s="92"/>
+      <c r="DD25" s="92"/>
+      <c r="DE25" s="92"/>
+      <c r="DF25" s="92"/>
+      <c r="DG25" s="92"/>
+      <c r="DH25" s="92"/>
+      <c r="DI25" s="92"/>
+      <c r="DJ25" s="92"/>
+      <c r="DK25" s="92"/>
+      <c r="DL25" s="92"/>
+      <c r="DM25" s="92"/>
+      <c r="DN25" s="92"/>
+      <c r="DO25" s="92"/>
+      <c r="DP25" s="92"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="G26" s="91"/>
       <c r="H26" s="91"/>
@@ -4103,8 +5934,64 @@
       <c r="BJ26" s="92"/>
       <c r="BK26" s="92"/>
       <c r="BL26" s="92"/>
+      <c r="BM26" s="92"/>
+      <c r="BN26" s="92"/>
+      <c r="BO26" s="92"/>
+      <c r="BP26" s="92"/>
+      <c r="BQ26" s="92"/>
+      <c r="BR26" s="92"/>
+      <c r="BS26" s="92"/>
+      <c r="BT26" s="92"/>
+      <c r="BU26" s="92"/>
+      <c r="BV26" s="92"/>
+      <c r="BW26" s="92"/>
+      <c r="BX26" s="92"/>
+      <c r="BY26" s="92"/>
+      <c r="BZ26" s="92"/>
+      <c r="CA26" s="92"/>
+      <c r="CB26" s="92"/>
+      <c r="CC26" s="92"/>
+      <c r="CD26" s="92"/>
+      <c r="CE26" s="92"/>
+      <c r="CF26" s="92"/>
+      <c r="CG26" s="92"/>
+      <c r="CH26" s="92"/>
+      <c r="CI26" s="92"/>
+      <c r="CJ26" s="92"/>
+      <c r="CK26" s="92"/>
+      <c r="CL26" s="92"/>
+      <c r="CM26" s="92"/>
+      <c r="CN26" s="92"/>
+      <c r="CO26" s="92"/>
+      <c r="CP26" s="92"/>
+      <c r="CQ26" s="92"/>
+      <c r="CR26" s="92"/>
+      <c r="CS26" s="92"/>
+      <c r="CT26" s="92"/>
+      <c r="CU26" s="92"/>
+      <c r="CV26" s="92"/>
+      <c r="CW26" s="92"/>
+      <c r="CX26" s="92"/>
+      <c r="CY26" s="92"/>
+      <c r="CZ26" s="92"/>
+      <c r="DA26" s="92"/>
+      <c r="DB26" s="92"/>
+      <c r="DC26" s="92"/>
+      <c r="DD26" s="92"/>
+      <c r="DE26" s="92"/>
+      <c r="DF26" s="92"/>
+      <c r="DG26" s="92"/>
+      <c r="DH26" s="92"/>
+      <c r="DI26" s="92"/>
+      <c r="DJ26" s="92"/>
+      <c r="DK26" s="92"/>
+      <c r="DL26" s="92"/>
+      <c r="DM26" s="92"/>
+      <c r="DN26" s="92"/>
+      <c r="DO26" s="92"/>
+      <c r="DP26" s="92"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28"/>
       <c r="G27" s="91"/>
       <c r="H27" s="91"/>
@@ -4164,8 +6051,64 @@
       <c r="BJ27" s="92"/>
       <c r="BK27" s="92"/>
       <c r="BL27" s="92"/>
+      <c r="BM27" s="92"/>
+      <c r="BN27" s="92"/>
+      <c r="BO27" s="92"/>
+      <c r="BP27" s="92"/>
+      <c r="BQ27" s="92"/>
+      <c r="BR27" s="92"/>
+      <c r="BS27" s="92"/>
+      <c r="BT27" s="92"/>
+      <c r="BU27" s="92"/>
+      <c r="BV27" s="92"/>
+      <c r="BW27" s="92"/>
+      <c r="BX27" s="92"/>
+      <c r="BY27" s="92"/>
+      <c r="BZ27" s="92"/>
+      <c r="CA27" s="92"/>
+      <c r="CB27" s="92"/>
+      <c r="CC27" s="92"/>
+      <c r="CD27" s="92"/>
+      <c r="CE27" s="92"/>
+      <c r="CF27" s="92"/>
+      <c r="CG27" s="92"/>
+      <c r="CH27" s="92"/>
+      <c r="CI27" s="92"/>
+      <c r="CJ27" s="92"/>
+      <c r="CK27" s="92"/>
+      <c r="CL27" s="92"/>
+      <c r="CM27" s="92"/>
+      <c r="CN27" s="92"/>
+      <c r="CO27" s="92"/>
+      <c r="CP27" s="92"/>
+      <c r="CQ27" s="92"/>
+      <c r="CR27" s="92"/>
+      <c r="CS27" s="92"/>
+      <c r="CT27" s="92"/>
+      <c r="CU27" s="92"/>
+      <c r="CV27" s="92"/>
+      <c r="CW27" s="92"/>
+      <c r="CX27" s="92"/>
+      <c r="CY27" s="92"/>
+      <c r="CZ27" s="92"/>
+      <c r="DA27" s="92"/>
+      <c r="DB27" s="92"/>
+      <c r="DC27" s="92"/>
+      <c r="DD27" s="92"/>
+      <c r="DE27" s="92"/>
+      <c r="DF27" s="92"/>
+      <c r="DG27" s="92"/>
+      <c r="DH27" s="92"/>
+      <c r="DI27" s="92"/>
+      <c r="DJ27" s="92"/>
+      <c r="DK27" s="92"/>
+      <c r="DL27" s="92"/>
+      <c r="DM27" s="92"/>
+      <c r="DN27" s="92"/>
+      <c r="DO27" s="92"/>
+      <c r="DP27" s="92"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28"/>
       <c r="G28" s="91"/>
       <c r="H28" s="91"/>
@@ -4225,8 +6168,64 @@
       <c r="BJ28" s="92"/>
       <c r="BK28" s="92"/>
       <c r="BL28" s="92"/>
+      <c r="BM28" s="92"/>
+      <c r="BN28" s="92"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="92"/>
+      <c r="BQ28" s="92"/>
+      <c r="BR28" s="92"/>
+      <c r="BS28" s="92"/>
+      <c r="BT28" s="92"/>
+      <c r="BU28" s="92"/>
+      <c r="BV28" s="92"/>
+      <c r="BW28" s="92"/>
+      <c r="BX28" s="92"/>
+      <c r="BY28" s="92"/>
+      <c r="BZ28" s="92"/>
+      <c r="CA28" s="92"/>
+      <c r="CB28" s="92"/>
+      <c r="CC28" s="92"/>
+      <c r="CD28" s="92"/>
+      <c r="CE28" s="92"/>
+      <c r="CF28" s="92"/>
+      <c r="CG28" s="92"/>
+      <c r="CH28" s="92"/>
+      <c r="CI28" s="92"/>
+      <c r="CJ28" s="92"/>
+      <c r="CK28" s="92"/>
+      <c r="CL28" s="92"/>
+      <c r="CM28" s="92"/>
+      <c r="CN28" s="92"/>
+      <c r="CO28" s="92"/>
+      <c r="CP28" s="92"/>
+      <c r="CQ28" s="92"/>
+      <c r="CR28" s="92"/>
+      <c r="CS28" s="92"/>
+      <c r="CT28" s="92"/>
+      <c r="CU28" s="92"/>
+      <c r="CV28" s="92"/>
+      <c r="CW28" s="92"/>
+      <c r="CX28" s="92"/>
+      <c r="CY28" s="92"/>
+      <c r="CZ28" s="92"/>
+      <c r="DA28" s="92"/>
+      <c r="DB28" s="92"/>
+      <c r="DC28" s="92"/>
+      <c r="DD28" s="92"/>
+      <c r="DE28" s="92"/>
+      <c r="DF28" s="92"/>
+      <c r="DG28" s="92"/>
+      <c r="DH28" s="92"/>
+      <c r="DI28" s="92"/>
+      <c r="DJ28" s="92"/>
+      <c r="DK28" s="92"/>
+      <c r="DL28" s="92"/>
+      <c r="DM28" s="92"/>
+      <c r="DN28" s="92"/>
+      <c r="DO28" s="92"/>
+      <c r="DP28" s="92"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28"/>
       <c r="G29" s="91"/>
       <c r="H29" s="91"/>
@@ -4286,8 +6285,64 @@
       <c r="BJ29" s="92"/>
       <c r="BK29" s="92"/>
       <c r="BL29" s="92"/>
+      <c r="BM29" s="92"/>
+      <c r="BN29" s="92"/>
+      <c r="BO29" s="92"/>
+      <c r="BP29" s="92"/>
+      <c r="BQ29" s="92"/>
+      <c r="BR29" s="92"/>
+      <c r="BS29" s="92"/>
+      <c r="BT29" s="92"/>
+      <c r="BU29" s="92"/>
+      <c r="BV29" s="92"/>
+      <c r="BW29" s="92"/>
+      <c r="BX29" s="92"/>
+      <c r="BY29" s="92"/>
+      <c r="BZ29" s="92"/>
+      <c r="CA29" s="92"/>
+      <c r="CB29" s="92"/>
+      <c r="CC29" s="92"/>
+      <c r="CD29" s="92"/>
+      <c r="CE29" s="92"/>
+      <c r="CF29" s="92"/>
+      <c r="CG29" s="92"/>
+      <c r="CH29" s="92"/>
+      <c r="CI29" s="92"/>
+      <c r="CJ29" s="92"/>
+      <c r="CK29" s="92"/>
+      <c r="CL29" s="92"/>
+      <c r="CM29" s="92"/>
+      <c r="CN29" s="92"/>
+      <c r="CO29" s="92"/>
+      <c r="CP29" s="92"/>
+      <c r="CQ29" s="92"/>
+      <c r="CR29" s="92"/>
+      <c r="CS29" s="92"/>
+      <c r="CT29" s="92"/>
+      <c r="CU29" s="92"/>
+      <c r="CV29" s="92"/>
+      <c r="CW29" s="92"/>
+      <c r="CX29" s="92"/>
+      <c r="CY29" s="92"/>
+      <c r="CZ29" s="92"/>
+      <c r="DA29" s="92"/>
+      <c r="DB29" s="92"/>
+      <c r="DC29" s="92"/>
+      <c r="DD29" s="92"/>
+      <c r="DE29" s="92"/>
+      <c r="DF29" s="92"/>
+      <c r="DG29" s="92"/>
+      <c r="DH29" s="92"/>
+      <c r="DI29" s="92"/>
+      <c r="DJ29" s="92"/>
+      <c r="DK29" s="92"/>
+      <c r="DL29" s="92"/>
+      <c r="DM29" s="92"/>
+      <c r="DN29" s="92"/>
+      <c r="DO29" s="92"/>
+      <c r="DP29" s="92"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28"/>
       <c r="G30" s="91"/>
       <c r="H30" s="91"/>
@@ -4347,8 +6402,64 @@
       <c r="BJ30" s="92"/>
       <c r="BK30" s="92"/>
       <c r="BL30" s="92"/>
+      <c r="BM30" s="92"/>
+      <c r="BN30" s="92"/>
+      <c r="BO30" s="92"/>
+      <c r="BP30" s="92"/>
+      <c r="BQ30" s="92"/>
+      <c r="BR30" s="92"/>
+      <c r="BS30" s="92"/>
+      <c r="BT30" s="92"/>
+      <c r="BU30" s="92"/>
+      <c r="BV30" s="92"/>
+      <c r="BW30" s="92"/>
+      <c r="BX30" s="92"/>
+      <c r="BY30" s="92"/>
+      <c r="BZ30" s="92"/>
+      <c r="CA30" s="92"/>
+      <c r="CB30" s="92"/>
+      <c r="CC30" s="92"/>
+      <c r="CD30" s="92"/>
+      <c r="CE30" s="92"/>
+      <c r="CF30" s="92"/>
+      <c r="CG30" s="92"/>
+      <c r="CH30" s="92"/>
+      <c r="CI30" s="92"/>
+      <c r="CJ30" s="92"/>
+      <c r="CK30" s="92"/>
+      <c r="CL30" s="92"/>
+      <c r="CM30" s="92"/>
+      <c r="CN30" s="92"/>
+      <c r="CO30" s="92"/>
+      <c r="CP30" s="92"/>
+      <c r="CQ30" s="92"/>
+      <c r="CR30" s="92"/>
+      <c r="CS30" s="92"/>
+      <c r="CT30" s="92"/>
+      <c r="CU30" s="92"/>
+      <c r="CV30" s="92"/>
+      <c r="CW30" s="92"/>
+      <c r="CX30" s="92"/>
+      <c r="CY30" s="92"/>
+      <c r="CZ30" s="92"/>
+      <c r="DA30" s="92"/>
+      <c r="DB30" s="92"/>
+      <c r="DC30" s="92"/>
+      <c r="DD30" s="92"/>
+      <c r="DE30" s="92"/>
+      <c r="DF30" s="92"/>
+      <c r="DG30" s="92"/>
+      <c r="DH30" s="92"/>
+      <c r="DI30" s="92"/>
+      <c r="DJ30" s="92"/>
+      <c r="DK30" s="92"/>
+      <c r="DL30" s="92"/>
+      <c r="DM30" s="92"/>
+      <c r="DN30" s="92"/>
+      <c r="DO30" s="92"/>
+      <c r="DP30" s="92"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="G31" s="91"/>
       <c r="H31" s="91"/>
@@ -4408,8 +6519,64 @@
       <c r="BJ31" s="92"/>
       <c r="BK31" s="92"/>
       <c r="BL31" s="92"/>
+      <c r="BM31" s="92"/>
+      <c r="BN31" s="92"/>
+      <c r="BO31" s="92"/>
+      <c r="BP31" s="92"/>
+      <c r="BQ31" s="92"/>
+      <c r="BR31" s="92"/>
+      <c r="BS31" s="92"/>
+      <c r="BT31" s="92"/>
+      <c r="BU31" s="92"/>
+      <c r="BV31" s="92"/>
+      <c r="BW31" s="92"/>
+      <c r="BX31" s="92"/>
+      <c r="BY31" s="92"/>
+      <c r="BZ31" s="92"/>
+      <c r="CA31" s="92"/>
+      <c r="CB31" s="92"/>
+      <c r="CC31" s="92"/>
+      <c r="CD31" s="92"/>
+      <c r="CE31" s="92"/>
+      <c r="CF31" s="92"/>
+      <c r="CG31" s="92"/>
+      <c r="CH31" s="92"/>
+      <c r="CI31" s="92"/>
+      <c r="CJ31" s="92"/>
+      <c r="CK31" s="92"/>
+      <c r="CL31" s="92"/>
+      <c r="CM31" s="92"/>
+      <c r="CN31" s="92"/>
+      <c r="CO31" s="92"/>
+      <c r="CP31" s="92"/>
+      <c r="CQ31" s="92"/>
+      <c r="CR31" s="92"/>
+      <c r="CS31" s="92"/>
+      <c r="CT31" s="92"/>
+      <c r="CU31" s="92"/>
+      <c r="CV31" s="92"/>
+      <c r="CW31" s="92"/>
+      <c r="CX31" s="92"/>
+      <c r="CY31" s="92"/>
+      <c r="CZ31" s="92"/>
+      <c r="DA31" s="92"/>
+      <c r="DB31" s="92"/>
+      <c r="DC31" s="92"/>
+      <c r="DD31" s="92"/>
+      <c r="DE31" s="92"/>
+      <c r="DF31" s="92"/>
+      <c r="DG31" s="92"/>
+      <c r="DH31" s="92"/>
+      <c r="DI31" s="92"/>
+      <c r="DJ31" s="92"/>
+      <c r="DK31" s="92"/>
+      <c r="DL31" s="92"/>
+      <c r="DM31" s="92"/>
+      <c r="DN31" s="92"/>
+      <c r="DO31" s="92"/>
+      <c r="DP31" s="92"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28"/>
       <c r="G32" s="91"/>
       <c r="H32" s="91"/>
@@ -4469,8 +6636,64 @@
       <c r="BJ32" s="92"/>
       <c r="BK32" s="92"/>
       <c r="BL32" s="92"/>
+      <c r="BM32" s="92"/>
+      <c r="BN32" s="92"/>
+      <c r="BO32" s="92"/>
+      <c r="BP32" s="92"/>
+      <c r="BQ32" s="92"/>
+      <c r="BR32" s="92"/>
+      <c r="BS32" s="92"/>
+      <c r="BT32" s="92"/>
+      <c r="BU32" s="92"/>
+      <c r="BV32" s="92"/>
+      <c r="BW32" s="92"/>
+      <c r="BX32" s="92"/>
+      <c r="BY32" s="92"/>
+      <c r="BZ32" s="92"/>
+      <c r="CA32" s="92"/>
+      <c r="CB32" s="92"/>
+      <c r="CC32" s="92"/>
+      <c r="CD32" s="92"/>
+      <c r="CE32" s="92"/>
+      <c r="CF32" s="92"/>
+      <c r="CG32" s="92"/>
+      <c r="CH32" s="92"/>
+      <c r="CI32" s="92"/>
+      <c r="CJ32" s="92"/>
+      <c r="CK32" s="92"/>
+      <c r="CL32" s="92"/>
+      <c r="CM32" s="92"/>
+      <c r="CN32" s="92"/>
+      <c r="CO32" s="92"/>
+      <c r="CP32" s="92"/>
+      <c r="CQ32" s="92"/>
+      <c r="CR32" s="92"/>
+      <c r="CS32" s="92"/>
+      <c r="CT32" s="92"/>
+      <c r="CU32" s="92"/>
+      <c r="CV32" s="92"/>
+      <c r="CW32" s="92"/>
+      <c r="CX32" s="92"/>
+      <c r="CY32" s="92"/>
+      <c r="CZ32" s="92"/>
+      <c r="DA32" s="92"/>
+      <c r="DB32" s="92"/>
+      <c r="DC32" s="92"/>
+      <c r="DD32" s="92"/>
+      <c r="DE32" s="92"/>
+      <c r="DF32" s="92"/>
+      <c r="DG32" s="92"/>
+      <c r="DH32" s="92"/>
+      <c r="DI32" s="92"/>
+      <c r="DJ32" s="92"/>
+      <c r="DK32" s="92"/>
+      <c r="DL32" s="92"/>
+      <c r="DM32" s="92"/>
+      <c r="DN32" s="92"/>
+      <c r="DO32" s="92"/>
+      <c r="DP32" s="92"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28"/>
       <c r="G33" s="91"/>
       <c r="H33" s="91"/>
@@ -4530,8 +6753,64 @@
       <c r="BJ33" s="92"/>
       <c r="BK33" s="92"/>
       <c r="BL33" s="92"/>
+      <c r="BM33" s="92"/>
+      <c r="BN33" s="92"/>
+      <c r="BO33" s="92"/>
+      <c r="BP33" s="92"/>
+      <c r="BQ33" s="92"/>
+      <c r="BR33" s="92"/>
+      <c r="BS33" s="92"/>
+      <c r="BT33" s="92"/>
+      <c r="BU33" s="92"/>
+      <c r="BV33" s="92"/>
+      <c r="BW33" s="92"/>
+      <c r="BX33" s="92"/>
+      <c r="BY33" s="92"/>
+      <c r="BZ33" s="92"/>
+      <c r="CA33" s="92"/>
+      <c r="CB33" s="92"/>
+      <c r="CC33" s="92"/>
+      <c r="CD33" s="92"/>
+      <c r="CE33" s="92"/>
+      <c r="CF33" s="92"/>
+      <c r="CG33" s="92"/>
+      <c r="CH33" s="92"/>
+      <c r="CI33" s="92"/>
+      <c r="CJ33" s="92"/>
+      <c r="CK33" s="92"/>
+      <c r="CL33" s="92"/>
+      <c r="CM33" s="92"/>
+      <c r="CN33" s="92"/>
+      <c r="CO33" s="92"/>
+      <c r="CP33" s="92"/>
+      <c r="CQ33" s="92"/>
+      <c r="CR33" s="92"/>
+      <c r="CS33" s="92"/>
+      <c r="CT33" s="92"/>
+      <c r="CU33" s="92"/>
+      <c r="CV33" s="92"/>
+      <c r="CW33" s="92"/>
+      <c r="CX33" s="92"/>
+      <c r="CY33" s="92"/>
+      <c r="CZ33" s="92"/>
+      <c r="DA33" s="92"/>
+      <c r="DB33" s="92"/>
+      <c r="DC33" s="92"/>
+      <c r="DD33" s="92"/>
+      <c r="DE33" s="92"/>
+      <c r="DF33" s="92"/>
+      <c r="DG33" s="92"/>
+      <c r="DH33" s="92"/>
+      <c r="DI33" s="92"/>
+      <c r="DJ33" s="92"/>
+      <c r="DK33" s="92"/>
+      <c r="DL33" s="92"/>
+      <c r="DM33" s="92"/>
+      <c r="DN33" s="92"/>
+      <c r="DO33" s="92"/>
+      <c r="DP33" s="92"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="G34" s="91"/>
       <c r="H34" s="91"/>
@@ -4591,8 +6870,64 @@
       <c r="BJ34" s="92"/>
       <c r="BK34" s="92"/>
       <c r="BL34" s="92"/>
+      <c r="BM34" s="92"/>
+      <c r="BN34" s="92"/>
+      <c r="BO34" s="92"/>
+      <c r="BP34" s="92"/>
+      <c r="BQ34" s="92"/>
+      <c r="BR34" s="92"/>
+      <c r="BS34" s="92"/>
+      <c r="BT34" s="92"/>
+      <c r="BU34" s="92"/>
+      <c r="BV34" s="92"/>
+      <c r="BW34" s="92"/>
+      <c r="BX34" s="92"/>
+      <c r="BY34" s="92"/>
+      <c r="BZ34" s="92"/>
+      <c r="CA34" s="92"/>
+      <c r="CB34" s="92"/>
+      <c r="CC34" s="92"/>
+      <c r="CD34" s="92"/>
+      <c r="CE34" s="92"/>
+      <c r="CF34" s="92"/>
+      <c r="CG34" s="92"/>
+      <c r="CH34" s="92"/>
+      <c r="CI34" s="92"/>
+      <c r="CJ34" s="92"/>
+      <c r="CK34" s="92"/>
+      <c r="CL34" s="92"/>
+      <c r="CM34" s="92"/>
+      <c r="CN34" s="92"/>
+      <c r="CO34" s="92"/>
+      <c r="CP34" s="92"/>
+      <c r="CQ34" s="92"/>
+      <c r="CR34" s="92"/>
+      <c r="CS34" s="92"/>
+      <c r="CT34" s="92"/>
+      <c r="CU34" s="92"/>
+      <c r="CV34" s="92"/>
+      <c r="CW34" s="92"/>
+      <c r="CX34" s="92"/>
+      <c r="CY34" s="92"/>
+      <c r="CZ34" s="92"/>
+      <c r="DA34" s="92"/>
+      <c r="DB34" s="92"/>
+      <c r="DC34" s="92"/>
+      <c r="DD34" s="92"/>
+      <c r="DE34" s="92"/>
+      <c r="DF34" s="92"/>
+      <c r="DG34" s="92"/>
+      <c r="DH34" s="92"/>
+      <c r="DI34" s="92"/>
+      <c r="DJ34" s="92"/>
+      <c r="DK34" s="92"/>
+      <c r="DL34" s="92"/>
+      <c r="DM34" s="92"/>
+      <c r="DN34" s="92"/>
+      <c r="DO34" s="92"/>
+      <c r="DP34" s="92"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28"/>
       <c r="G35" s="91"/>
       <c r="H35" s="91"/>
@@ -4652,8 +6987,64 @@
       <c r="BJ35" s="92"/>
       <c r="BK35" s="92"/>
       <c r="BL35" s="92"/>
+      <c r="BM35" s="92"/>
+      <c r="BN35" s="92"/>
+      <c r="BO35" s="92"/>
+      <c r="BP35" s="92"/>
+      <c r="BQ35" s="92"/>
+      <c r="BR35" s="92"/>
+      <c r="BS35" s="92"/>
+      <c r="BT35" s="92"/>
+      <c r="BU35" s="92"/>
+      <c r="BV35" s="92"/>
+      <c r="BW35" s="92"/>
+      <c r="BX35" s="92"/>
+      <c r="BY35" s="92"/>
+      <c r="BZ35" s="92"/>
+      <c r="CA35" s="92"/>
+      <c r="CB35" s="92"/>
+      <c r="CC35" s="92"/>
+      <c r="CD35" s="92"/>
+      <c r="CE35" s="92"/>
+      <c r="CF35" s="92"/>
+      <c r="CG35" s="92"/>
+      <c r="CH35" s="92"/>
+      <c r="CI35" s="92"/>
+      <c r="CJ35" s="92"/>
+      <c r="CK35" s="92"/>
+      <c r="CL35" s="92"/>
+      <c r="CM35" s="92"/>
+      <c r="CN35" s="92"/>
+      <c r="CO35" s="92"/>
+      <c r="CP35" s="92"/>
+      <c r="CQ35" s="92"/>
+      <c r="CR35" s="92"/>
+      <c r="CS35" s="92"/>
+      <c r="CT35" s="92"/>
+      <c r="CU35" s="92"/>
+      <c r="CV35" s="92"/>
+      <c r="CW35" s="92"/>
+      <c r="CX35" s="92"/>
+      <c r="CY35" s="92"/>
+      <c r="CZ35" s="92"/>
+      <c r="DA35" s="92"/>
+      <c r="DB35" s="92"/>
+      <c r="DC35" s="92"/>
+      <c r="DD35" s="92"/>
+      <c r="DE35" s="92"/>
+      <c r="DF35" s="92"/>
+      <c r="DG35" s="92"/>
+      <c r="DH35" s="92"/>
+      <c r="DI35" s="92"/>
+      <c r="DJ35" s="92"/>
+      <c r="DK35" s="92"/>
+      <c r="DL35" s="92"/>
+      <c r="DM35" s="92"/>
+      <c r="DN35" s="92"/>
+      <c r="DO35" s="92"/>
+      <c r="DP35" s="92"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28"/>
       <c r="G36" s="91"/>
       <c r="H36" s="91"/>
@@ -4713,8 +7104,64 @@
       <c r="BJ36" s="92"/>
       <c r="BK36" s="92"/>
       <c r="BL36" s="92"/>
+      <c r="BM36" s="92"/>
+      <c r="BN36" s="92"/>
+      <c r="BO36" s="92"/>
+      <c r="BP36" s="92"/>
+      <c r="BQ36" s="92"/>
+      <c r="BR36" s="92"/>
+      <c r="BS36" s="92"/>
+      <c r="BT36" s="92"/>
+      <c r="BU36" s="92"/>
+      <c r="BV36" s="92"/>
+      <c r="BW36" s="92"/>
+      <c r="BX36" s="92"/>
+      <c r="BY36" s="92"/>
+      <c r="BZ36" s="92"/>
+      <c r="CA36" s="92"/>
+      <c r="CB36" s="92"/>
+      <c r="CC36" s="92"/>
+      <c r="CD36" s="92"/>
+      <c r="CE36" s="92"/>
+      <c r="CF36" s="92"/>
+      <c r="CG36" s="92"/>
+      <c r="CH36" s="92"/>
+      <c r="CI36" s="92"/>
+      <c r="CJ36" s="92"/>
+      <c r="CK36" s="92"/>
+      <c r="CL36" s="92"/>
+      <c r="CM36" s="92"/>
+      <c r="CN36" s="92"/>
+      <c r="CO36" s="92"/>
+      <c r="CP36" s="92"/>
+      <c r="CQ36" s="92"/>
+      <c r="CR36" s="92"/>
+      <c r="CS36" s="92"/>
+      <c r="CT36" s="92"/>
+      <c r="CU36" s="92"/>
+      <c r="CV36" s="92"/>
+      <c r="CW36" s="92"/>
+      <c r="CX36" s="92"/>
+      <c r="CY36" s="92"/>
+      <c r="CZ36" s="92"/>
+      <c r="DA36" s="92"/>
+      <c r="DB36" s="92"/>
+      <c r="DC36" s="92"/>
+      <c r="DD36" s="92"/>
+      <c r="DE36" s="92"/>
+      <c r="DF36" s="92"/>
+      <c r="DG36" s="92"/>
+      <c r="DH36" s="92"/>
+      <c r="DI36" s="92"/>
+      <c r="DJ36" s="92"/>
+      <c r="DK36" s="92"/>
+      <c r="DL36" s="92"/>
+      <c r="DM36" s="92"/>
+      <c r="DN36" s="92"/>
+      <c r="DO36" s="92"/>
+      <c r="DP36" s="92"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28"/>
       <c r="G37" s="91"/>
       <c r="H37" s="91"/>
@@ -4774,8 +7221,64 @@
       <c r="BJ37" s="92"/>
       <c r="BK37" s="92"/>
       <c r="BL37" s="92"/>
+      <c r="BM37" s="92"/>
+      <c r="BN37" s="92"/>
+      <c r="BO37" s="92"/>
+      <c r="BP37" s="92"/>
+      <c r="BQ37" s="92"/>
+      <c r="BR37" s="92"/>
+      <c r="BS37" s="92"/>
+      <c r="BT37" s="92"/>
+      <c r="BU37" s="92"/>
+      <c r="BV37" s="92"/>
+      <c r="BW37" s="92"/>
+      <c r="BX37" s="92"/>
+      <c r="BY37" s="92"/>
+      <c r="BZ37" s="92"/>
+      <c r="CA37" s="92"/>
+      <c r="CB37" s="92"/>
+      <c r="CC37" s="92"/>
+      <c r="CD37" s="92"/>
+      <c r="CE37" s="92"/>
+      <c r="CF37" s="92"/>
+      <c r="CG37" s="92"/>
+      <c r="CH37" s="92"/>
+      <c r="CI37" s="92"/>
+      <c r="CJ37" s="92"/>
+      <c r="CK37" s="92"/>
+      <c r="CL37" s="92"/>
+      <c r="CM37" s="92"/>
+      <c r="CN37" s="92"/>
+      <c r="CO37" s="92"/>
+      <c r="CP37" s="92"/>
+      <c r="CQ37" s="92"/>
+      <c r="CR37" s="92"/>
+      <c r="CS37" s="92"/>
+      <c r="CT37" s="92"/>
+      <c r="CU37" s="92"/>
+      <c r="CV37" s="92"/>
+      <c r="CW37" s="92"/>
+      <c r="CX37" s="92"/>
+      <c r="CY37" s="92"/>
+      <c r="CZ37" s="92"/>
+      <c r="DA37" s="92"/>
+      <c r="DB37" s="92"/>
+      <c r="DC37" s="92"/>
+      <c r="DD37" s="92"/>
+      <c r="DE37" s="92"/>
+      <c r="DF37" s="92"/>
+      <c r="DG37" s="92"/>
+      <c r="DH37" s="92"/>
+      <c r="DI37" s="92"/>
+      <c r="DJ37" s="92"/>
+      <c r="DK37" s="92"/>
+      <c r="DL37" s="92"/>
+      <c r="DM37" s="92"/>
+      <c r="DN37" s="92"/>
+      <c r="DO37" s="92"/>
+      <c r="DP37" s="92"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28"/>
       <c r="G38" s="91"/>
       <c r="H38" s="91"/>
@@ -4835,8 +7338,64 @@
       <c r="BJ38" s="92"/>
       <c r="BK38" s="92"/>
       <c r="BL38" s="92"/>
+      <c r="BM38" s="92"/>
+      <c r="BN38" s="92"/>
+      <c r="BO38" s="92"/>
+      <c r="BP38" s="92"/>
+      <c r="BQ38" s="92"/>
+      <c r="BR38" s="92"/>
+      <c r="BS38" s="92"/>
+      <c r="BT38" s="92"/>
+      <c r="BU38" s="92"/>
+      <c r="BV38" s="92"/>
+      <c r="BW38" s="92"/>
+      <c r="BX38" s="92"/>
+      <c r="BY38" s="92"/>
+      <c r="BZ38" s="92"/>
+      <c r="CA38" s="92"/>
+      <c r="CB38" s="92"/>
+      <c r="CC38" s="92"/>
+      <c r="CD38" s="92"/>
+      <c r="CE38" s="92"/>
+      <c r="CF38" s="92"/>
+      <c r="CG38" s="92"/>
+      <c r="CH38" s="92"/>
+      <c r="CI38" s="92"/>
+      <c r="CJ38" s="92"/>
+      <c r="CK38" s="92"/>
+      <c r="CL38" s="92"/>
+      <c r="CM38" s="92"/>
+      <c r="CN38" s="92"/>
+      <c r="CO38" s="92"/>
+      <c r="CP38" s="92"/>
+      <c r="CQ38" s="92"/>
+      <c r="CR38" s="92"/>
+      <c r="CS38" s="92"/>
+      <c r="CT38" s="92"/>
+      <c r="CU38" s="92"/>
+      <c r="CV38" s="92"/>
+      <c r="CW38" s="92"/>
+      <c r="CX38" s="92"/>
+      <c r="CY38" s="92"/>
+      <c r="CZ38" s="92"/>
+      <c r="DA38" s="92"/>
+      <c r="DB38" s="92"/>
+      <c r="DC38" s="92"/>
+      <c r="DD38" s="92"/>
+      <c r="DE38" s="92"/>
+      <c r="DF38" s="92"/>
+      <c r="DG38" s="92"/>
+      <c r="DH38" s="92"/>
+      <c r="DI38" s="92"/>
+      <c r="DJ38" s="92"/>
+      <c r="DK38" s="92"/>
+      <c r="DL38" s="92"/>
+      <c r="DM38" s="92"/>
+      <c r="DN38" s="92"/>
+      <c r="DO38" s="92"/>
+      <c r="DP38" s="92"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28"/>
       <c r="G39" s="91"/>
       <c r="H39" s="91"/>
@@ -4896,8 +7455,64 @@
       <c r="BJ39" s="92"/>
       <c r="BK39" s="92"/>
       <c r="BL39" s="92"/>
+      <c r="BM39" s="92"/>
+      <c r="BN39" s="92"/>
+      <c r="BO39" s="92"/>
+      <c r="BP39" s="92"/>
+      <c r="BQ39" s="92"/>
+      <c r="BR39" s="92"/>
+      <c r="BS39" s="92"/>
+      <c r="BT39" s="92"/>
+      <c r="BU39" s="92"/>
+      <c r="BV39" s="92"/>
+      <c r="BW39" s="92"/>
+      <c r="BX39" s="92"/>
+      <c r="BY39" s="92"/>
+      <c r="BZ39" s="92"/>
+      <c r="CA39" s="92"/>
+      <c r="CB39" s="92"/>
+      <c r="CC39" s="92"/>
+      <c r="CD39" s="92"/>
+      <c r="CE39" s="92"/>
+      <c r="CF39" s="92"/>
+      <c r="CG39" s="92"/>
+      <c r="CH39" s="92"/>
+      <c r="CI39" s="92"/>
+      <c r="CJ39" s="92"/>
+      <c r="CK39" s="92"/>
+      <c r="CL39" s="92"/>
+      <c r="CM39" s="92"/>
+      <c r="CN39" s="92"/>
+      <c r="CO39" s="92"/>
+      <c r="CP39" s="92"/>
+      <c r="CQ39" s="92"/>
+      <c r="CR39" s="92"/>
+      <c r="CS39" s="92"/>
+      <c r="CT39" s="92"/>
+      <c r="CU39" s="92"/>
+      <c r="CV39" s="92"/>
+      <c r="CW39" s="92"/>
+      <c r="CX39" s="92"/>
+      <c r="CY39" s="92"/>
+      <c r="CZ39" s="92"/>
+      <c r="DA39" s="92"/>
+      <c r="DB39" s="92"/>
+      <c r="DC39" s="92"/>
+      <c r="DD39" s="92"/>
+      <c r="DE39" s="92"/>
+      <c r="DF39" s="92"/>
+      <c r="DG39" s="92"/>
+      <c r="DH39" s="92"/>
+      <c r="DI39" s="92"/>
+      <c r="DJ39" s="92"/>
+      <c r="DK39" s="92"/>
+      <c r="DL39" s="92"/>
+      <c r="DM39" s="92"/>
+      <c r="DN39" s="92"/>
+      <c r="DO39" s="92"/>
+      <c r="DP39" s="92"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28"/>
       <c r="G40" s="91"/>
       <c r="H40" s="91"/>
@@ -4957,8 +7572,64 @@
       <c r="BJ40" s="92"/>
       <c r="BK40" s="92"/>
       <c r="BL40" s="92"/>
+      <c r="BM40" s="92"/>
+      <c r="BN40" s="92"/>
+      <c r="BO40" s="92"/>
+      <c r="BP40" s="92"/>
+      <c r="BQ40" s="92"/>
+      <c r="BR40" s="92"/>
+      <c r="BS40" s="92"/>
+      <c r="BT40" s="92"/>
+      <c r="BU40" s="92"/>
+      <c r="BV40" s="92"/>
+      <c r="BW40" s="92"/>
+      <c r="BX40" s="92"/>
+      <c r="BY40" s="92"/>
+      <c r="BZ40" s="92"/>
+      <c r="CA40" s="92"/>
+      <c r="CB40" s="92"/>
+      <c r="CC40" s="92"/>
+      <c r="CD40" s="92"/>
+      <c r="CE40" s="92"/>
+      <c r="CF40" s="92"/>
+      <c r="CG40" s="92"/>
+      <c r="CH40" s="92"/>
+      <c r="CI40" s="92"/>
+      <c r="CJ40" s="92"/>
+      <c r="CK40" s="92"/>
+      <c r="CL40" s="92"/>
+      <c r="CM40" s="92"/>
+      <c r="CN40" s="92"/>
+      <c r="CO40" s="92"/>
+      <c r="CP40" s="92"/>
+      <c r="CQ40" s="92"/>
+      <c r="CR40" s="92"/>
+      <c r="CS40" s="92"/>
+      <c r="CT40" s="92"/>
+      <c r="CU40" s="92"/>
+      <c r="CV40" s="92"/>
+      <c r="CW40" s="92"/>
+      <c r="CX40" s="92"/>
+      <c r="CY40" s="92"/>
+      <c r="CZ40" s="92"/>
+      <c r="DA40" s="92"/>
+      <c r="DB40" s="92"/>
+      <c r="DC40" s="92"/>
+      <c r="DD40" s="92"/>
+      <c r="DE40" s="92"/>
+      <c r="DF40" s="92"/>
+      <c r="DG40" s="92"/>
+      <c r="DH40" s="92"/>
+      <c r="DI40" s="92"/>
+      <c r="DJ40" s="92"/>
+      <c r="DK40" s="92"/>
+      <c r="DL40" s="92"/>
+      <c r="DM40" s="92"/>
+      <c r="DN40" s="92"/>
+      <c r="DO40" s="92"/>
+      <c r="DP40" s="92"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28"/>
       <c r="G41" s="91"/>
       <c r="H41" s="91"/>
@@ -5018,8 +7689,64 @@
       <c r="BJ41" s="92"/>
       <c r="BK41" s="92"/>
       <c r="BL41" s="92"/>
+      <c r="BM41" s="92"/>
+      <c r="BN41" s="92"/>
+      <c r="BO41" s="92"/>
+      <c r="BP41" s="92"/>
+      <c r="BQ41" s="92"/>
+      <c r="BR41" s="92"/>
+      <c r="BS41" s="92"/>
+      <c r="BT41" s="92"/>
+      <c r="BU41" s="92"/>
+      <c r="BV41" s="92"/>
+      <c r="BW41" s="92"/>
+      <c r="BX41" s="92"/>
+      <c r="BY41" s="92"/>
+      <c r="BZ41" s="92"/>
+      <c r="CA41" s="92"/>
+      <c r="CB41" s="92"/>
+      <c r="CC41" s="92"/>
+      <c r="CD41" s="92"/>
+      <c r="CE41" s="92"/>
+      <c r="CF41" s="92"/>
+      <c r="CG41" s="92"/>
+      <c r="CH41" s="92"/>
+      <c r="CI41" s="92"/>
+      <c r="CJ41" s="92"/>
+      <c r="CK41" s="92"/>
+      <c r="CL41" s="92"/>
+      <c r="CM41" s="92"/>
+      <c r="CN41" s="92"/>
+      <c r="CO41" s="92"/>
+      <c r="CP41" s="92"/>
+      <c r="CQ41" s="92"/>
+      <c r="CR41" s="92"/>
+      <c r="CS41" s="92"/>
+      <c r="CT41" s="92"/>
+      <c r="CU41" s="92"/>
+      <c r="CV41" s="92"/>
+      <c r="CW41" s="92"/>
+      <c r="CX41" s="92"/>
+      <c r="CY41" s="92"/>
+      <c r="CZ41" s="92"/>
+      <c r="DA41" s="92"/>
+      <c r="DB41" s="92"/>
+      <c r="DC41" s="92"/>
+      <c r="DD41" s="92"/>
+      <c r="DE41" s="92"/>
+      <c r="DF41" s="92"/>
+      <c r="DG41" s="92"/>
+      <c r="DH41" s="92"/>
+      <c r="DI41" s="92"/>
+      <c r="DJ41" s="92"/>
+      <c r="DK41" s="92"/>
+      <c r="DL41" s="92"/>
+      <c r="DM41" s="92"/>
+      <c r="DN41" s="92"/>
+      <c r="DO41" s="92"/>
+      <c r="DP41" s="92"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28"/>
       <c r="G42" s="91"/>
       <c r="H42" s="91"/>
@@ -5079,8 +7806,64 @@
       <c r="BJ42" s="92"/>
       <c r="BK42" s="92"/>
       <c r="BL42" s="92"/>
+      <c r="BM42" s="92"/>
+      <c r="BN42" s="92"/>
+      <c r="BO42" s="92"/>
+      <c r="BP42" s="92"/>
+      <c r="BQ42" s="92"/>
+      <c r="BR42" s="92"/>
+      <c r="BS42" s="92"/>
+      <c r="BT42" s="92"/>
+      <c r="BU42" s="92"/>
+      <c r="BV42" s="92"/>
+      <c r="BW42" s="92"/>
+      <c r="BX42" s="92"/>
+      <c r="BY42" s="92"/>
+      <c r="BZ42" s="92"/>
+      <c r="CA42" s="92"/>
+      <c r="CB42" s="92"/>
+      <c r="CC42" s="92"/>
+      <c r="CD42" s="92"/>
+      <c r="CE42" s="92"/>
+      <c r="CF42" s="92"/>
+      <c r="CG42" s="92"/>
+      <c r="CH42" s="92"/>
+      <c r="CI42" s="92"/>
+      <c r="CJ42" s="92"/>
+      <c r="CK42" s="92"/>
+      <c r="CL42" s="92"/>
+      <c r="CM42" s="92"/>
+      <c r="CN42" s="92"/>
+      <c r="CO42" s="92"/>
+      <c r="CP42" s="92"/>
+      <c r="CQ42" s="92"/>
+      <c r="CR42" s="92"/>
+      <c r="CS42" s="92"/>
+      <c r="CT42" s="92"/>
+      <c r="CU42" s="92"/>
+      <c r="CV42" s="92"/>
+      <c r="CW42" s="92"/>
+      <c r="CX42" s="92"/>
+      <c r="CY42" s="92"/>
+      <c r="CZ42" s="92"/>
+      <c r="DA42" s="92"/>
+      <c r="DB42" s="92"/>
+      <c r="DC42" s="92"/>
+      <c r="DD42" s="92"/>
+      <c r="DE42" s="92"/>
+      <c r="DF42" s="92"/>
+      <c r="DG42" s="92"/>
+      <c r="DH42" s="92"/>
+      <c r="DI42" s="92"/>
+      <c r="DJ42" s="92"/>
+      <c r="DK42" s="92"/>
+      <c r="DL42" s="92"/>
+      <c r="DM42" s="92"/>
+      <c r="DN42" s="92"/>
+      <c r="DO42" s="92"/>
+      <c r="DP42" s="92"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28"/>
       <c r="G43" s="91"/>
       <c r="H43" s="91"/>
@@ -5140,8 +7923,64 @@
       <c r="BJ43" s="92"/>
       <c r="BK43" s="92"/>
       <c r="BL43" s="92"/>
+      <c r="BM43" s="92"/>
+      <c r="BN43" s="92"/>
+      <c r="BO43" s="92"/>
+      <c r="BP43" s="92"/>
+      <c r="BQ43" s="92"/>
+      <c r="BR43" s="92"/>
+      <c r="BS43" s="92"/>
+      <c r="BT43" s="92"/>
+      <c r="BU43" s="92"/>
+      <c r="BV43" s="92"/>
+      <c r="BW43" s="92"/>
+      <c r="BX43" s="92"/>
+      <c r="BY43" s="92"/>
+      <c r="BZ43" s="92"/>
+      <c r="CA43" s="92"/>
+      <c r="CB43" s="92"/>
+      <c r="CC43" s="92"/>
+      <c r="CD43" s="92"/>
+      <c r="CE43" s="92"/>
+      <c r="CF43" s="92"/>
+      <c r="CG43" s="92"/>
+      <c r="CH43" s="92"/>
+      <c r="CI43" s="92"/>
+      <c r="CJ43" s="92"/>
+      <c r="CK43" s="92"/>
+      <c r="CL43" s="92"/>
+      <c r="CM43" s="92"/>
+      <c r="CN43" s="92"/>
+      <c r="CO43" s="92"/>
+      <c r="CP43" s="92"/>
+      <c r="CQ43" s="92"/>
+      <c r="CR43" s="92"/>
+      <c r="CS43" s="92"/>
+      <c r="CT43" s="92"/>
+      <c r="CU43" s="92"/>
+      <c r="CV43" s="92"/>
+      <c r="CW43" s="92"/>
+      <c r="CX43" s="92"/>
+      <c r="CY43" s="92"/>
+      <c r="CZ43" s="92"/>
+      <c r="DA43" s="92"/>
+      <c r="DB43" s="92"/>
+      <c r="DC43" s="92"/>
+      <c r="DD43" s="92"/>
+      <c r="DE43" s="92"/>
+      <c r="DF43" s="92"/>
+      <c r="DG43" s="92"/>
+      <c r="DH43" s="92"/>
+      <c r="DI43" s="92"/>
+      <c r="DJ43" s="92"/>
+      <c r="DK43" s="92"/>
+      <c r="DL43" s="92"/>
+      <c r="DM43" s="92"/>
+      <c r="DN43" s="92"/>
+      <c r="DO43" s="92"/>
+      <c r="DP43" s="92"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="G44" s="91"/>
       <c r="H44" s="91"/>
@@ -5201,8 +8040,64 @@
       <c r="BJ44" s="92"/>
       <c r="BK44" s="92"/>
       <c r="BL44" s="92"/>
+      <c r="BM44" s="92"/>
+      <c r="BN44" s="92"/>
+      <c r="BO44" s="92"/>
+      <c r="BP44" s="92"/>
+      <c r="BQ44" s="92"/>
+      <c r="BR44" s="92"/>
+      <c r="BS44" s="92"/>
+      <c r="BT44" s="92"/>
+      <c r="BU44" s="92"/>
+      <c r="BV44" s="92"/>
+      <c r="BW44" s="92"/>
+      <c r="BX44" s="92"/>
+      <c r="BY44" s="92"/>
+      <c r="BZ44" s="92"/>
+      <c r="CA44" s="92"/>
+      <c r="CB44" s="92"/>
+      <c r="CC44" s="92"/>
+      <c r="CD44" s="92"/>
+      <c r="CE44" s="92"/>
+      <c r="CF44" s="92"/>
+      <c r="CG44" s="92"/>
+      <c r="CH44" s="92"/>
+      <c r="CI44" s="92"/>
+      <c r="CJ44" s="92"/>
+      <c r="CK44" s="92"/>
+      <c r="CL44" s="92"/>
+      <c r="CM44" s="92"/>
+      <c r="CN44" s="92"/>
+      <c r="CO44" s="92"/>
+      <c r="CP44" s="92"/>
+      <c r="CQ44" s="92"/>
+      <c r="CR44" s="92"/>
+      <c r="CS44" s="92"/>
+      <c r="CT44" s="92"/>
+      <c r="CU44" s="92"/>
+      <c r="CV44" s="92"/>
+      <c r="CW44" s="92"/>
+      <c r="CX44" s="92"/>
+      <c r="CY44" s="92"/>
+      <c r="CZ44" s="92"/>
+      <c r="DA44" s="92"/>
+      <c r="DB44" s="92"/>
+      <c r="DC44" s="92"/>
+      <c r="DD44" s="92"/>
+      <c r="DE44" s="92"/>
+      <c r="DF44" s="92"/>
+      <c r="DG44" s="92"/>
+      <c r="DH44" s="92"/>
+      <c r="DI44" s="92"/>
+      <c r="DJ44" s="92"/>
+      <c r="DK44" s="92"/>
+      <c r="DL44" s="92"/>
+      <c r="DM44" s="92"/>
+      <c r="DN44" s="92"/>
+      <c r="DO44" s="92"/>
+      <c r="DP44" s="92"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
       <c r="G45" s="91"/>
       <c r="H45" s="91"/>
@@ -5262,8 +8157,64 @@
       <c r="BJ45" s="92"/>
       <c r="BK45" s="92"/>
       <c r="BL45" s="92"/>
+      <c r="BM45" s="92"/>
+      <c r="BN45" s="92"/>
+      <c r="BO45" s="92"/>
+      <c r="BP45" s="92"/>
+      <c r="BQ45" s="92"/>
+      <c r="BR45" s="92"/>
+      <c r="BS45" s="92"/>
+      <c r="BT45" s="92"/>
+      <c r="BU45" s="92"/>
+      <c r="BV45" s="92"/>
+      <c r="BW45" s="92"/>
+      <c r="BX45" s="92"/>
+      <c r="BY45" s="92"/>
+      <c r="BZ45" s="92"/>
+      <c r="CA45" s="92"/>
+      <c r="CB45" s="92"/>
+      <c r="CC45" s="92"/>
+      <c r="CD45" s="92"/>
+      <c r="CE45" s="92"/>
+      <c r="CF45" s="92"/>
+      <c r="CG45" s="92"/>
+      <c r="CH45" s="92"/>
+      <c r="CI45" s="92"/>
+      <c r="CJ45" s="92"/>
+      <c r="CK45" s="92"/>
+      <c r="CL45" s="92"/>
+      <c r="CM45" s="92"/>
+      <c r="CN45" s="92"/>
+      <c r="CO45" s="92"/>
+      <c r="CP45" s="92"/>
+      <c r="CQ45" s="92"/>
+      <c r="CR45" s="92"/>
+      <c r="CS45" s="92"/>
+      <c r="CT45" s="92"/>
+      <c r="CU45" s="92"/>
+      <c r="CV45" s="92"/>
+      <c r="CW45" s="92"/>
+      <c r="CX45" s="92"/>
+      <c r="CY45" s="92"/>
+      <c r="CZ45" s="92"/>
+      <c r="DA45" s="92"/>
+      <c r="DB45" s="92"/>
+      <c r="DC45" s="92"/>
+      <c r="DD45" s="92"/>
+      <c r="DE45" s="92"/>
+      <c r="DF45" s="92"/>
+      <c r="DG45" s="92"/>
+      <c r="DH45" s="92"/>
+      <c r="DI45" s="92"/>
+      <c r="DJ45" s="92"/>
+      <c r="DK45" s="92"/>
+      <c r="DL45" s="92"/>
+      <c r="DM45" s="92"/>
+      <c r="DN45" s="92"/>
+      <c r="DO45" s="92"/>
+      <c r="DP45" s="92"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
       <c r="G46" s="91"/>
       <c r="H46" s="91"/>
@@ -5323,13 +8274,69 @@
       <c r="BJ46" s="92"/>
       <c r="BK46" s="92"/>
       <c r="BL46" s="92"/>
+      <c r="BM46" s="92"/>
+      <c r="BN46" s="92"/>
+      <c r="BO46" s="92"/>
+      <c r="BP46" s="92"/>
+      <c r="BQ46" s="92"/>
+      <c r="BR46" s="92"/>
+      <c r="BS46" s="92"/>
+      <c r="BT46" s="92"/>
+      <c r="BU46" s="92"/>
+      <c r="BV46" s="92"/>
+      <c r="BW46" s="92"/>
+      <c r="BX46" s="92"/>
+      <c r="BY46" s="92"/>
+      <c r="BZ46" s="92"/>
+      <c r="CA46" s="92"/>
+      <c r="CB46" s="92"/>
+      <c r="CC46" s="92"/>
+      <c r="CD46" s="92"/>
+      <c r="CE46" s="92"/>
+      <c r="CF46" s="92"/>
+      <c r="CG46" s="92"/>
+      <c r="CH46" s="92"/>
+      <c r="CI46" s="92"/>
+      <c r="CJ46" s="92"/>
+      <c r="CK46" s="92"/>
+      <c r="CL46" s="92"/>
+      <c r="CM46" s="92"/>
+      <c r="CN46" s="92"/>
+      <c r="CO46" s="92"/>
+      <c r="CP46" s="92"/>
+      <c r="CQ46" s="92"/>
+      <c r="CR46" s="92"/>
+      <c r="CS46" s="92"/>
+      <c r="CT46" s="92"/>
+      <c r="CU46" s="92"/>
+      <c r="CV46" s="92"/>
+      <c r="CW46" s="92"/>
+      <c r="CX46" s="92"/>
+      <c r="CY46" s="92"/>
+      <c r="CZ46" s="92"/>
+      <c r="DA46" s="92"/>
+      <c r="DB46" s="92"/>
+      <c r="DC46" s="92"/>
+      <c r="DD46" s="92"/>
+      <c r="DE46" s="92"/>
+      <c r="DF46" s="92"/>
+      <c r="DG46" s="92"/>
+      <c r="DH46" s="92"/>
+      <c r="DI46" s="92"/>
+      <c r="DJ46" s="92"/>
+      <c r="DK46" s="92"/>
+      <c r="DL46" s="92"/>
+      <c r="DM46" s="92"/>
+      <c r="DN46" s="92"/>
+      <c r="DO46" s="92"/>
+      <c r="DP46" s="92"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:120" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28"/>
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5385,12 +8392,15 @@
       <c r="C63" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
+  <mergeCells count="20">
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5398,9 +8408,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D46">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5414,16 +8429,120 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL46">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="26" priority="57">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL46">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="25" priority="51">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM5:BS46">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM7:BS46">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT5:BZ46">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT7:BZ46">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA5:CG46">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;CB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA7:CG46">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND(task_start&lt;=CA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CA$5,task_start&lt;CB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH5:CN46">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(TODAY()&gt;=CH$5,TODAY()&lt;CI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH7:CN46">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(task_start&lt;=CH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CH$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CH$5,task_start&lt;CI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO5:CU46">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(TODAY()&gt;=CO$5,TODAY()&lt;CP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO7:CU46">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>AND(task_start&lt;=CO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CO$5,task_start&lt;CP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV5:DB46">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(TODAY()&gt;=CV$5,TODAY()&lt;CW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV7:DB46">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND(task_start&lt;=CV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CV$5,task_start&lt;CW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC5:DI46">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(TODAY()&gt;=DC$5,TODAY()&lt;DD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC7:DI46">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(task_start&lt;=DC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DC$5,task_start&lt;DD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ5:DP46">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=DJ$5,TODAY()&lt;DK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ7:DP46">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=DJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DJ$5,task_start&lt;DK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
